--- a/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
+++ b/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Configuración 1" sheetId="1" r:id="rId1"/>
@@ -72,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -337,10 +337,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -349,10 +349,10 @@
     <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -426,6 +426,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 1'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00;[Red]#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13500.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14500.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 1'!$B$12:$AE$12</c:f>
@@ -541,6 +640,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 1'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00;[Red]#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9500.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13500.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14500.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 1'!$B$14:$AE$14</c:f>
@@ -652,20 +850,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117838296"/>
-        <c:axId val="-2143433976"/>
+        <c:axId val="-2147426088"/>
+        <c:axId val="-2147433656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117838296"/>
+        <c:axId val="-2147426088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143433976"/>
+        <c:crossAx val="-2147433656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -673,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143433976"/>
+        <c:axId val="-2147433656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -684,7 +883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117838296"/>
+        <c:crossAx val="-2147426088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -740,6 +939,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 2'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19500.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20500.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23500.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24500.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 2'!$B$12:$AE$12</c:f>
@@ -855,6 +1153,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 2'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12500.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13500.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14500.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15500.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16500.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17500.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18500.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19500.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20500.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21500.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22500.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23500.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>24500.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>25000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 2'!$B$14:$AE$14</c:f>
@@ -966,20 +1363,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126883880"/>
-        <c:axId val="2126881032"/>
+        <c:axId val="-2143997288"/>
+        <c:axId val="-2143994312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126883880"/>
+        <c:axId val="-2143997288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00_ ;\-#,##0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126881032"/>
+        <c:crossAx val="-2143994312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -987,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126881032"/>
+        <c:axId val="-2143994312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126883880"/>
+        <c:crossAx val="-2143997288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1054,6 +1452,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 3'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00;[Red]#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 3'!$B$12:$AE$12</c:f>
@@ -1169,6 +1666,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 3'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00;[Red]#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>35000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 3'!$B$14:$AE$14</c:f>
@@ -1280,20 +1876,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147006296"/>
-        <c:axId val="-2146982824"/>
+        <c:axId val="-2143917240"/>
+        <c:axId val="-2143914264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147006296"/>
+        <c:axId val="-2143917240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00;[Red]#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146982824"/>
+        <c:crossAx val="-2143914264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2146982824"/>
+        <c:axId val="-2143914264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147006296"/>
+        <c:crossAx val="-2143917240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1368,6 +1965,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 4'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 4'!$B$12:$AE$12</c:f>
@@ -1483,6 +2179,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 4'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_ ;\-#,##0.00\ </c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>40000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>60000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 4'!$B$14:$AE$14</c:f>
@@ -1594,20 +2389,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130130120"/>
-        <c:axId val="-2145605912"/>
+        <c:axId val="-2144990488"/>
+        <c:axId val="-2144988168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130130120"/>
+        <c:axId val="-2144990488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00_ ;\-#,##0.00\ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145605912"/>
+        <c:crossAx val="-2144988168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1615,7 +2411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145605912"/>
+        <c:axId val="-2144988168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +2422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130130120"/>
+        <c:crossAx val="-2144990488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1682,6 +2478,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 5'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>215000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 5'!$B$12:$AE$12</c:f>
@@ -1797,6 +2692,105 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Configuración 5'!$B$10:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>70000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>105000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>115000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>135000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>145000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>150000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>155000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>160000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>165000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>175000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>190000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>195000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>205000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>210000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>215000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Configuración 5'!$B$14:$AE$14</c:f>
@@ -1908,20 +2902,21 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2142384904"/>
-        <c:axId val="-2142984616"/>
+        <c:axId val="-2144900392"/>
+        <c:axId val="-2144897416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2142384904"/>
+        <c:axId val="-2144900392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142984616"/>
+        <c:crossAx val="-2144897416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1929,7 +2924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142984616"/>
+        <c:axId val="-2144897416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +2935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142384904"/>
+        <c:crossAx val="-2144900392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,13 +2999,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1231900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2461,7 +3456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
@@ -2479,7 +3474,7 @@
     <col min="23" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="25.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23">
       <c r="C1" s="21"/>
       <c r="D1" s="4"/>
       <c r="E1" s="28" t="s">
@@ -2684,7 +3679,7 @@
     <row r="11" spans="1:31">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:31" s="29" customFormat="1" ht="15.75">
+    <row r="12" spans="1:31" s="29" customFormat="1" ht="15">
       <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
@@ -2809,7 +3804,7 @@
         <v>20026680002</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="29" customFormat="1" ht="15.75">
+    <row r="14" spans="1:31" s="29" customFormat="1" ht="15">
       <c r="A14" s="32" t="s">
         <v>2</v>
       </c>
@@ -2934,7 +3929,7 @@
         <v>12377025002</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="21">
+    <row r="16" spans="1:31" ht="20">
       <c r="D16" s="37" t="s">
         <v>13</v>
       </c>
@@ -2957,7 +3952,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -2988,7 +3983,7 @@
     <col min="31" max="31" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="25.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23">
       <c r="C1" s="23"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
@@ -3329,7 +4324,7 @@
       <c r="C13" s="20"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="1:31" s="29" customFormat="1" ht="15.75">
+    <row r="14" spans="1:31" s="29" customFormat="1" ht="15">
       <c r="A14" s="32" t="s">
         <v>2</v>
       </c>
@@ -3458,7 +4453,7 @@
       <c r="C15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="17" spans="4:4" ht="21">
+    <row r="17" spans="4:4" ht="20">
       <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
@@ -3480,7 +4475,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -3517,13 +4512,13 @@
     <col min="29" max="31" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="25.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23">
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18">
+    <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -3541,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18">
+    <row r="3" spans="1:31" ht="17">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -3559,7 +4554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18">
+    <row r="4" spans="1:31" ht="17">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -3577,7 +4572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="17">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +4590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="17">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -3613,7 +4608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="17">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -3631,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18">
+    <row r="8" spans="1:31" ht="17">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -3645,7 +4640,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:31" ht="18">
+    <row r="9" spans="1:31" ht="17">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="25"/>
@@ -3655,7 +4650,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:31" s="39" customFormat="1" ht="18">
+    <row r="10" spans="1:31" s="39" customFormat="1" ht="17">
       <c r="A10" s="38" t="s">
         <v>11</v>
       </c>
@@ -3750,7 +4745,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18">
+    <row r="11" spans="1:31" ht="17">
       <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="C11" s="25"/>
@@ -3885,7 +4880,7 @@
         <v>6026450400001</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="18">
+    <row r="13" spans="1:31" ht="17">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="25"/>
@@ -4020,7 +5015,7 @@
         <v>4536074880001</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="18">
+    <row r="15" spans="1:31" ht="17">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="25"/>
@@ -4030,7 +5025,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:31" ht="18.75">
+    <row r="16" spans="1:31" ht="18">
       <c r="D16" s="36" t="s">
         <v>13</v>
       </c>
@@ -4090,7 +5085,7 @@
     <col min="31" max="31" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="25.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23">
       <c r="C1" s="26"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
@@ -4098,7 +5093,7 @@
       </c>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:31" ht="18">
+    <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -4116,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18">
+    <row r="3" spans="1:31" ht="17">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -4134,7 +5129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18">
+    <row r="4" spans="1:31" ht="17">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4152,7 +5147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="17">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4170,7 +5165,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="17">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -4188,7 +5183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="17">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -4206,7 +5201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18">
+    <row r="8" spans="1:31" ht="17">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +5320,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18">
+    <row r="11" spans="1:31" ht="17">
       <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="C11" s="27"/>
@@ -4605,7 +5600,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:31" ht="18.75">
+    <row r="16" spans="1:31" ht="18">
       <c r="D16" s="36" t="s">
         <v>13</v>
       </c>
@@ -4626,9 +5621,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4664,13 +5659,13 @@
     <col min="31" max="31" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="25.5">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="23">
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="18">
+    <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -4688,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="18">
+    <row r="3" spans="1:31" ht="17">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
@@ -4706,7 +5701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="18">
+    <row r="4" spans="1:31" ht="17">
       <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +5719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="18">
+    <row r="5" spans="1:31" ht="17">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4742,7 +5737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="18">
+    <row r="6" spans="1:31" ht="17">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
@@ -4760,7 +5755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="18">
+    <row r="7" spans="1:31" ht="17">
       <c r="A7" s="16" t="s">
         <v>7</v>
       </c>
@@ -4778,7 +5773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="18">
+    <row r="8" spans="1:31" ht="17">
       <c r="A8" s="16" t="s">
         <v>8</v>
       </c>
@@ -4897,7 +5892,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="18">
+    <row r="11" spans="1:31" ht="17">
       <c r="A11" s="18"/>
       <c r="B11" s="12"/>
       <c r="C11" s="17"/>
@@ -5177,7 +6172,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="17"/>
     </row>
-    <row r="16" spans="1:31" ht="18.75">
+    <row r="16" spans="1:31" ht="18">
       <c r="E16" s="34" t="s">
         <v>13</v>
       </c>

--- a/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
+++ b/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configuración 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
   <si>
     <t>Tarea número 1 -Análisis de algoritmos - Emmanuel Rosales Salas - 2013108931</t>
   </si>
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,13 +163,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -243,7 +236,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,8 +252,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -313,28 +322,19 @@
     <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -342,12 +342,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,8 +355,11 @@
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -370,6 +367,14 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -377,6 +382,14 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +421,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.117900553174524"/>
+          <c:y val="0.0166435506241331"/>
+          <c:w val="0.701509643177514"/>
+          <c:h val="0.893629364290629"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -532,94 +555,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.2306002E7</c:v>
+                  <c:v>2.3583429E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9112002E7</c:v>
+                  <c:v>9.4166929E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.00418002E8</c:v>
+                  <c:v>2.11750429E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.56224002E8</c:v>
+                  <c:v>3.76333929E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.56530002E8</c:v>
+                  <c:v>5.87917429E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.01336002E8</c:v>
+                  <c:v>8.46500929E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.090642002E9</c:v>
+                  <c:v>1.152084429E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.424448002E9</c:v>
+                  <c:v>1.504667929E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.802754002E9</c:v>
+                  <c:v>1.904251429E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.225560002E9</c:v>
+                  <c:v>2.350834929E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.692866002E9</c:v>
+                  <c:v>2.844418429E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.204672002E9</c:v>
+                  <c:v>3.385001929E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.760978002E9</c:v>
+                  <c:v>3.972585429E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.361784002E9</c:v>
+                  <c:v>4.607168929E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.007090002E9</c:v>
+                  <c:v>5.288752429E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.696896002E9</c:v>
+                  <c:v>6.017335929E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.431202002E9</c:v>
+                  <c:v>6.792919429E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.210008002E9</c:v>
+                  <c:v>7.615502929E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.033314002E9</c:v>
+                  <c:v>8.485086429E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.901120002E9</c:v>
+                  <c:v>9.401669929E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.813426002E9</c:v>
+                  <c:v>1.0365253429E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.0770232002E10</c:v>
+                  <c:v>1.1375836929E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1771538002E10</c:v>
+                  <c:v>1.2433420429E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2817344002E10</c:v>
+                  <c:v>1.3538003929E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3907650002E10</c:v>
+                  <c:v>1.4689587429E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5042456002E10</c:v>
+                  <c:v>1.5888170929E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6221762002E10</c:v>
+                  <c:v>1.7133754429E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7445568002E10</c:v>
+                  <c:v>1.8426337929E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.8713874002E10</c:v>
+                  <c:v>1.9765921429E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.0026680002E10</c:v>
+                  <c:v>2.1152504929E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -746,94 +769,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.3817502E7</c:v>
+                  <c:v>1.4231096E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5135002E7</c:v>
+                  <c:v>5.6712346E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.23952502E8</c:v>
+                  <c:v>1.27443596E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.20270002E8</c:v>
+                  <c:v>2.26424846E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.44087502E8</c:v>
+                  <c:v>3.53656096E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.95405002E8</c:v>
+                  <c:v>5.09137346E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.74222502E8</c:v>
+                  <c:v>6.92868596E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.80540002E8</c:v>
+                  <c:v>9.04849846E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.114357502E9</c:v>
+                  <c:v>1.145081096E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.375675002E9</c:v>
+                  <c:v>1.413562346E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.664492502E9</c:v>
+                  <c:v>1.710293596E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.980810002E9</c:v>
+                  <c:v>2.035274846E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.324627502E9</c:v>
+                  <c:v>2.388506096E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.695945002E9</c:v>
+                  <c:v>2.769987346E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.094762502E9</c:v>
+                  <c:v>3.179718596E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.521080002E9</c:v>
+                  <c:v>3.617699846E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.974897502E9</c:v>
+                  <c:v>4.083931096E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.456215002E9</c:v>
+                  <c:v>4.578412346E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.965032502E9</c:v>
+                  <c:v>5.101143596E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.501350002E9</c:v>
+                  <c:v>5.652124846E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.065167502E9</c:v>
+                  <c:v>6.231356096E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.656485002E9</c:v>
+                  <c:v>6.838837346E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.275302502E9</c:v>
+                  <c:v>7.474568596E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.921620002E9</c:v>
+                  <c:v>8.138549846E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.595437502E9</c:v>
+                  <c:v>8.830781096E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.296755002E9</c:v>
+                  <c:v>9.551262346E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0025572502E10</c:v>
+                  <c:v>1.0299993596E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0781890002E10</c:v>
+                  <c:v>1.1076974846E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1565707502E10</c:v>
+                  <c:v>1.1882206096E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2377025002E10</c:v>
+                  <c:v>1.2715687346E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -850,11 +873,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2147426088"/>
-        <c:axId val="-2147433656"/>
+        <c:axId val="-2122585272"/>
+        <c:axId val="-2120281896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2147426088"/>
+        <c:axId val="-2122585272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147433656"/>
+        <c:crossAx val="-2120281896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -872,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2147433656"/>
+        <c:axId val="-2120281896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2147426088"/>
+        <c:crossAx val="-2122585272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,94 +1068,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.2003700005E10</c:v>
+                  <c:v>2.3583429E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4258885005E10</c:v>
+                  <c:v>9.4166929E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6624070005E10</c:v>
+                  <c:v>2.11750429E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9099255005E10</c:v>
+                  <c:v>3.76333929E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4379625005E10</c:v>
+                  <c:v>5.87917429E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7184810005E10</c:v>
+                  <c:v>8.46500929E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0099995005E10</c:v>
+                  <c:v>1.152084429E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3125180005E10</c:v>
+                  <c:v>1.504667929E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6260365005E10</c:v>
+                  <c:v>1.904251429E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9505550005E10</c:v>
+                  <c:v>2.350834929E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2860735005E10</c:v>
+                  <c:v>2.844418429E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6325920005E10</c:v>
+                  <c:v>3.385001929E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.9901105005E10</c:v>
+                  <c:v>3.972585429E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.3586290005E10</c:v>
+                  <c:v>4.607168929E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7381475005E10</c:v>
+                  <c:v>5.288752429E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.1286660005E10</c:v>
+                  <c:v>6.017335929E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.5301845005E10</c:v>
+                  <c:v>6.792919429E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.9427030005E10</c:v>
+                  <c:v>7.615502929E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.3662215005E10</c:v>
+                  <c:v>8.485086429E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.8007400005E10</c:v>
+                  <c:v>9.401669929E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.2462585005E10</c:v>
+                  <c:v>1.0365253429E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7027770005E10</c:v>
+                  <c:v>1.1375836929E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.01702955005E11</c:v>
+                  <c:v>1.2433420429E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.06488140005E11</c:v>
+                  <c:v>1.3538003929E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.11383325005E11</c:v>
+                  <c:v>1.4689587429E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.16388510005E11</c:v>
+                  <c:v>1.5888170929E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.21503695005E11</c:v>
+                  <c:v>1.7133754429E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.26728880005E11</c:v>
+                  <c:v>1.8426337929E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.32064065005E11</c:v>
+                  <c:v>1.9765921429E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.37509250005E11</c:v>
+                  <c:v>2.1152504929E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1259,94 +1282,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.7504650005E10</c:v>
+                  <c:v>1.4231096E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9298632505E10</c:v>
+                  <c:v>5.6712346E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1180115005E10</c:v>
+                  <c:v>1.27443596E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3149097505E10</c:v>
+                  <c:v>2.26424846E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7349562505E10</c:v>
+                  <c:v>3.53656096E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9581045005E10</c:v>
+                  <c:v>5.09137346E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1900027505E10</c:v>
+                  <c:v>6.92868596E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4306510005E10</c:v>
+                  <c:v>9.04849846E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6800492505E10</c:v>
+                  <c:v>1.145081096E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9381975005E10</c:v>
+                  <c:v>1.413562346E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.2050957505E10</c:v>
+                  <c:v>1.710293596E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4807440005E10</c:v>
+                  <c:v>2.035274846E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7651422505E10</c:v>
+                  <c:v>2.388506096E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0582905005E10</c:v>
+                  <c:v>2.769987346E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3601887505E10</c:v>
+                  <c:v>3.179718596E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.6708370005E10</c:v>
+                  <c:v>3.617699846E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9902352505E10</c:v>
+                  <c:v>4.083931096E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3183835005E10</c:v>
+                  <c:v>4.578412346E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6552817505E10</c:v>
+                  <c:v>5.101143596E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0009300005E10</c:v>
+                  <c:v>5.652124846E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3553282505E10</c:v>
+                  <c:v>6.231356096E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.7184765005E10</c:v>
+                  <c:v>6.838837346E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0903747505E10</c:v>
+                  <c:v>7.474568596E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.4710230005E10</c:v>
+                  <c:v>8.138549846E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.8604212505E10</c:v>
+                  <c:v>8.830781096E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.2585695005E10</c:v>
+                  <c:v>9.551262346E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.6654677505E10</c:v>
+                  <c:v>1.0299993596E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.00811160005E11</c:v>
+                  <c:v>1.1076974846E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.05055142505E11</c:v>
+                  <c:v>1.1882206096E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.09386625005E11</c:v>
+                  <c:v>1.2715687346E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,11 +1386,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143997288"/>
-        <c:axId val="-2143994312"/>
+        <c:axId val="-2137226376"/>
+        <c:axId val="-2137223288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143997288"/>
+        <c:axId val="-2137226376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143994312"/>
+        <c:crossAx val="-2137223288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143994312"/>
+        <c:axId val="-2137223288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +1419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143997288"/>
+        <c:crossAx val="-2137226376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,97 +1578,97 @@
             <c:numRef>
               <c:f>'Configuración 3'!$B$12:$AE$12</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;\-#,##0.00</c:formatCode>
+                <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.27859800001E11</c:v>
+                  <c:v>2.3583429E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.97611200001E11</c:v>
+                  <c:v>9.4166929E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.76662600001E11</c:v>
+                  <c:v>2.11750429E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.65014000001E11</c:v>
+                  <c:v>3.76333929E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62665400001E11</c:v>
+                  <c:v>5.87917429E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.69616800001E11</c:v>
+                  <c:v>8.46500929E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.85868200001E11</c:v>
+                  <c:v>1.152084429E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.11419600001E11</c:v>
+                  <c:v>1.504667929E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.046271000001E12</c:v>
+                  <c:v>1.904251429E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.190422400001E12</c:v>
+                  <c:v>2.350834929E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.343873800001E12</c:v>
+                  <c:v>2.844418429E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.506625200001E12</c:v>
+                  <c:v>3.385001929E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.678676600001E12</c:v>
+                  <c:v>3.972585429E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.860028000001E12</c:v>
+                  <c:v>4.607168929E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.050679400001E12</c:v>
+                  <c:v>5.288752429E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.250630800001E12</c:v>
+                  <c:v>6.017335929E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.459882200001E12</c:v>
+                  <c:v>6.792919429E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.678433600001E12</c:v>
+                  <c:v>7.615502929E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.906285000001E12</c:v>
+                  <c:v>8.485086429E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.143436400001E12</c:v>
+                  <c:v>9.401669929E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.389887800001E12</c:v>
+                  <c:v>1.0365253429E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.645639200001E12</c:v>
+                  <c:v>1.1375836929E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.910690600001E12</c:v>
+                  <c:v>1.2433420429E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.185042000001E12</c:v>
+                  <c:v>1.3538003929E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.468693400001E12</c:v>
+                  <c:v>1.4689587429E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.761644800001E12</c:v>
+                  <c:v>1.5888170929E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.063896200001E12</c:v>
+                  <c:v>1.7133754429E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.375447600001E12</c:v>
+                  <c:v>1.8426337929E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.696299000001E12</c:v>
+                  <c:v>1.9765921429E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.026450400001E12</c:v>
+                  <c:v>2.1152504929E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,94 +1795,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.71514560001E11</c:v>
+                  <c:v>1.4231096E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.24016640001E11</c:v>
+                  <c:v>5.6712346E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.83518720001E11</c:v>
+                  <c:v>1.27443596E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.50020800001E11</c:v>
+                  <c:v>2.26424846E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.23522880001E11</c:v>
+                  <c:v>3.53656096E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.04024960001E11</c:v>
+                  <c:v>5.09137346E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.91527040001E11</c:v>
+                  <c:v>6.92868596E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.86029120001E11</c:v>
+                  <c:v>9.04849846E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.87531200001E11</c:v>
+                  <c:v>1.145081096E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.96033280001E11</c:v>
+                  <c:v>1.413562346E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.011535360001E12</c:v>
+                  <c:v>1.710293596E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.134037440001E12</c:v>
+                  <c:v>2.035274846E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.263539520001E12</c:v>
+                  <c:v>2.388506096E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.400041600001E12</c:v>
+                  <c:v>2.769987346E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.543543680001E12</c:v>
+                  <c:v>3.179718596E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.694045760001E12</c:v>
+                  <c:v>3.617699846E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.851547840001E12</c:v>
+                  <c:v>4.083931096E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.016049920001E12</c:v>
+                  <c:v>4.578412346E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.187552000001E12</c:v>
+                  <c:v>5.101143596E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.366054080001E12</c:v>
+                  <c:v>5.652124846E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.551556160001E12</c:v>
+                  <c:v>6.231356096E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.744058240001E12</c:v>
+                  <c:v>6.838837346E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.943560320001E12</c:v>
+                  <c:v>7.474568596E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.150062400001E12</c:v>
+                  <c:v>8.138549846E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.363564480001E12</c:v>
+                  <c:v>8.830781096E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.584066560001E12</c:v>
+                  <c:v>9.551262346E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.811568640001E12</c:v>
+                  <c:v>1.0299993596E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.046070720001E12</c:v>
+                  <c:v>1.1076974846E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.287572800001E12</c:v>
+                  <c:v>1.1882206096E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.536074880001E12</c:v>
+                  <c:v>1.2715687346E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,11 +1899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143917240"/>
-        <c:axId val="-2143914264"/>
+        <c:axId val="-2137144936"/>
+        <c:axId val="-2137141880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143917240"/>
+        <c:axId val="-2137144936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143914264"/>
+        <c:crossAx val="-2137141880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1898,18 +1921,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143914264"/>
+        <c:axId val="-2137141880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="#,##0.00;\-#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0;\-#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143917240"/>
+        <c:crossAx val="-2137144936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2071,94 +2094,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>3.37610960008E11</c:v>
+                  <c:v>2.3583429E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.27287330008E11</c:v>
+                  <c:v>9.4166929E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.27513700008E11</c:v>
+                  <c:v>2.11750429E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.38290070008E11</c:v>
+                  <c:v>3.76333929E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.59616440008E11</c:v>
+                  <c:v>5.87917429E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.91492810008E11</c:v>
+                  <c:v>8.46500929E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.033919180008E12</c:v>
+                  <c:v>1.152084429E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.186895550008E12</c:v>
+                  <c:v>1.504667929E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.350421920008E12</c:v>
+                  <c:v>1.904251429E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.524498290008E12</c:v>
+                  <c:v>2.350834929E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.709124660008E12</c:v>
+                  <c:v>2.844418429E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.904301030008E12</c:v>
+                  <c:v>3.385001929E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.110027400008E12</c:v>
+                  <c:v>3.972585429E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.326303770008E12</c:v>
+                  <c:v>4.607168929E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.553130140008E12</c:v>
+                  <c:v>5.288752429E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.790506510008E12</c:v>
+                  <c:v>6.017335929E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.038432880008E12</c:v>
+                  <c:v>6.792919429E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.296909250008E12</c:v>
+                  <c:v>7.615502929E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.565935620008E12</c:v>
+                  <c:v>8.485086429E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.845511990008E12</c:v>
+                  <c:v>9.401669929E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.135638360008E12</c:v>
+                  <c:v>1.0365253429E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.436314730008E12</c:v>
+                  <c:v>1.1375836929E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.747541100008E12</c:v>
+                  <c:v>1.2433420429E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.069317470008E12</c:v>
+                  <c:v>1.3538003929E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.401643840008E12</c:v>
+                  <c:v>1.4689587429E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.744520210008E12</c:v>
+                  <c:v>1.5888170929E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.097946580008E12</c:v>
+                  <c:v>1.7133754429E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.461922950008E12</c:v>
+                  <c:v>1.8426337929E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.836449320008E12</c:v>
+                  <c:v>1.9765921429E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.221525690008E12</c:v>
+                  <c:v>2.1152504929E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,94 +2308,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.16012360008E11</c:v>
+                  <c:v>1.4231096E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.73388905008E11</c:v>
+                  <c:v>5.6712346E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.37515450008E11</c:v>
+                  <c:v>1.27443596E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.08391995008E11</c:v>
+                  <c:v>2.26424846E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.86018540008E11</c:v>
+                  <c:v>3.53656096E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.70395085008E11</c:v>
+                  <c:v>5.09137346E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.61521630008E11</c:v>
+                  <c:v>6.92868596E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.59398175008E11</c:v>
+                  <c:v>9.04849846E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.64024720008E11</c:v>
+                  <c:v>1.145081096E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.75401265008E11</c:v>
+                  <c:v>1.413562346E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.093527810008E12</c:v>
+                  <c:v>1.710293596E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.218404355008E12</c:v>
+                  <c:v>2.035274846E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.350030900008E12</c:v>
+                  <c:v>2.388506096E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.488407445008E12</c:v>
+                  <c:v>2.769987346E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.633533990008E12</c:v>
+                  <c:v>3.179718596E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.785410535008E12</c:v>
+                  <c:v>3.617699846E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.944037080008E12</c:v>
+                  <c:v>4.083931096E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.109413625008E12</c:v>
+                  <c:v>4.578412346E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.281540170008E12</c:v>
+                  <c:v>5.101143596E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.460416715008E12</c:v>
+                  <c:v>5.652124846E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.646043260008E12</c:v>
+                  <c:v>6.231356096E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.838419805008E12</c:v>
+                  <c:v>6.838837346E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.037546350008E12</c:v>
+                  <c:v>7.474568596E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.243422895008E12</c:v>
+                  <c:v>8.138549846E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.456049440008E12</c:v>
+                  <c:v>8.830781096E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.675425985008E12</c:v>
+                  <c:v>9.551262346E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.901552530008E12</c:v>
+                  <c:v>1.0299993596E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.134429075008E12</c:v>
+                  <c:v>1.1076974846E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.374055620008E12</c:v>
+                  <c:v>1.1882206096E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.620432165008E12</c:v>
+                  <c:v>1.2715687346E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,11 +2412,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144990488"/>
-        <c:axId val="-2144988168"/>
+        <c:axId val="-2137065288"/>
+        <c:axId val="-2137062216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144990488"/>
+        <c:axId val="-2137065288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144988168"/>
+        <c:crossAx val="-2137062216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2411,7 +2434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144988168"/>
+        <c:axId val="-2137062216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2422,7 +2445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144990488"/>
+        <c:crossAx val="-2137065288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,94 +2607,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>7.74215330006E11</c:v>
+                  <c:v>2.3583429E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.88766425006E11</c:v>
+                  <c:v>9.4166929E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.011217520006E12</c:v>
+                  <c:v>2.11750429E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.141568615006E12</c:v>
+                  <c:v>3.76333929E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.279819710006E12</c:v>
+                  <c:v>5.87917429E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.425970805006E12</c:v>
+                  <c:v>8.46500929E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.580021900006E12</c:v>
+                  <c:v>1.152084429E9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.741972995006E12</c:v>
+                  <c:v>1.504667929E9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.911824090006E12</c:v>
+                  <c:v>1.904251429E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.089575185006E12</c:v>
+                  <c:v>2.350834929E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.275226280006E12</c:v>
+                  <c:v>2.844418429E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.468777375006E12</c:v>
+                  <c:v>3.385001929E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.670228470006E12</c:v>
+                  <c:v>3.972585429E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.879579565006E12</c:v>
+                  <c:v>4.607168929E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.096830660006E12</c:v>
+                  <c:v>5.288752429E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.321981755006E12</c:v>
+                  <c:v>6.017335929E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.555032850006E12</c:v>
+                  <c:v>6.792919429E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.795983945006E12</c:v>
+                  <c:v>7.615502929E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.044835040006E12</c:v>
+                  <c:v>8.485086429E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.301586135006E12</c:v>
+                  <c:v>9.401669929E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.566237230006E12</c:v>
+                  <c:v>1.0365253429E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.838788325006E12</c:v>
+                  <c:v>1.1375836929E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.119239420006E12</c:v>
+                  <c:v>1.2433420429E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.407590515006E12</c:v>
+                  <c:v>1.3538003929E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.703841610006E12</c:v>
+                  <c:v>1.4689587429E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.007992705006E12</c:v>
+                  <c:v>1.5888170929E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.320043800006E12</c:v>
+                  <c:v>1.7133754429E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.639994895006E12</c:v>
+                  <c:v>1.8426337929E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.967845990006E12</c:v>
+                  <c:v>1.9765921429E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.303597085006E12</c:v>
+                  <c:v>2.1152504929E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2798,94 +2821,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>5.04721210006E11</c:v>
+                  <c:v>1.4231096E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.79397725006E11</c:v>
+                  <c:v>5.6712346E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.59224240006E11</c:v>
+                  <c:v>1.27443596E8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.44200755006E11</c:v>
+                  <c:v>2.26424846E8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.34327270006E11</c:v>
+                  <c:v>3.53656096E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.29603785006E11</c:v>
+                  <c:v>5.09137346E8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.030030300006E12</c:v>
+                  <c:v>6.92868596E8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.135606815006E12</c:v>
+                  <c:v>9.04849846E8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.246333330006E12</c:v>
+                  <c:v>1.145081096E9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.362209845006E12</c:v>
+                  <c:v>1.413562346E9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.483236360006E12</c:v>
+                  <c:v>1.710293596E9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.609412875006E12</c:v>
+                  <c:v>2.035274846E9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.740739390006E12</c:v>
+                  <c:v>2.388506096E9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.877215905006E12</c:v>
+                  <c:v>2.769987346E9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.018842420006E12</c:v>
+                  <c:v>3.179718596E9</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.165618935006E12</c:v>
+                  <c:v>3.617699846E9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.317545450006E12</c:v>
+                  <c:v>4.083931096E9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.474621965006E12</c:v>
+                  <c:v>4.578412346E9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.636848480006E12</c:v>
+                  <c:v>5.101143596E9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.804224995006E12</c:v>
+                  <c:v>5.652124846E9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.976751510006E12</c:v>
+                  <c:v>6.231356096E9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.154428025006E12</c:v>
+                  <c:v>6.838837346E9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.337254540006E12</c:v>
+                  <c:v>7.474568596E9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.525231055006E12</c:v>
+                  <c:v>8.138549846E9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.718357570006E12</c:v>
+                  <c:v>8.830781096E9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.916634085006E12</c:v>
+                  <c:v>9.551262346E9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.120060600006E12</c:v>
+                  <c:v>1.0299993596E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.328637115006E12</c:v>
+                  <c:v>1.1076974846E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.542363630006E12</c:v>
+                  <c:v>1.1882206096E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.761240145006E12</c:v>
+                  <c:v>1.2715687346E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2902,11 +2925,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144900392"/>
-        <c:axId val="-2144897416"/>
+        <c:axId val="-2137560328"/>
+        <c:axId val="-2137563400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144900392"/>
+        <c:axId val="-2137560328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2916,7 +2939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144897416"/>
+        <c:crossAx val="-2137563400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2924,7 +2947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144897416"/>
+        <c:axId val="-2137563400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2935,7 +2958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144900392"/>
+        <c:crossAx val="-2137560328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,20 +2984,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3456,21 +3479,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="20" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3566,11 +3590,11 @@
         <v>7</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="20">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -3580,99 +3604,105 @@
       <c r="C8" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="39" customFormat="1">
-      <c r="A10" s="38" t="s">
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="36" customFormat="1">
+      <c r="A10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="36">
         <v>500</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>1000</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>1500</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <v>2000</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <v>2500</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="36">
         <v>3000</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <v>3500</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="36">
         <v>4000</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="36">
         <v>4500</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="36">
         <v>5000</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="36">
         <v>5500</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="36">
         <v>6000</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="36">
         <v>6500</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="36">
         <v>7000</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="36">
         <v>7500</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="36">
         <v>8000</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="36">
         <v>8500</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="36">
         <v>9000</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="36">
         <v>9500</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="36">
         <v>10000</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="36">
         <v>10500</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="36">
         <v>11000</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="36">
         <v>11500</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="36">
         <v>12000</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="36">
         <v>12500</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="36">
         <v>13000</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="36">
         <v>13500</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="36">
         <v>14000</v>
       </c>
-      <c r="AD10" s="39">
+      <c r="AD10" s="36">
         <v>14500</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="36">
         <v>15000</v>
       </c>
     </row>
@@ -3680,257 +3710,257 @@
       <c r="A11" s="10"/>
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1" ht="15">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="29">
-        <f>(B10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*B10+C8</f>
-        <v>22306002</v>
+      <c r="B12" s="41">
+        <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>23583429</v>
       </c>
       <c r="C12" s="29">
-        <f>(C10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*C10+C8</f>
-        <v>89112002</v>
+        <f>(C10-1)*(3*C3+C5+C6)+((C10*(C10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>94166929</v>
       </c>
       <c r="D12" s="29">
-        <f>(D10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*D10+C8</f>
-        <v>200418002</v>
+        <f>(D10-1)*(3*C3+C5+C6)+((D10*(D10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>211750429</v>
       </c>
       <c r="E12" s="29">
-        <f>(E10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*E10+C8</f>
-        <v>356224002</v>
+        <f>(E10-1)*(3*C3+C5+C6)+((E10*(E10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>376333929</v>
       </c>
       <c r="F12" s="29">
-        <f>(F10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*F10+C8</f>
-        <v>556530002</v>
+        <f>(F10-1)*(3*C3+C5+C6)+((F10*(F10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>587917429</v>
       </c>
       <c r="G12" s="29">
-        <f>(G10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*G10+C8</f>
-        <v>801336002</v>
+        <f>(G10-1)*(3*C3+C5+C6)+((G10*(G10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>846500929</v>
       </c>
       <c r="H12" s="29">
-        <f>(H10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*H10+C8</f>
-        <v>1090642002</v>
+        <f>(H10-1)*(3*C3+C5+C6)+((H10*(H10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1152084429</v>
       </c>
       <c r="I12" s="29">
-        <f>(I10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*I10+C8</f>
-        <v>1424448002</v>
+        <f>(I10-1)*(3*C3+C5+C6)+((I10*(I10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1504667929</v>
       </c>
       <c r="J12" s="29">
-        <f>(J10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*J10+C8</f>
-        <v>1802754002</v>
+        <f>(J10-1)*(3*C3+C5+C6)+((J10*(J10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1904251429</v>
       </c>
       <c r="K12" s="29">
-        <f>(K10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*K10+C8</f>
-        <v>2225560002</v>
+        <f>(K10-1)*(3*C3+C5+C6)+((K10*(K10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2350834929</v>
       </c>
       <c r="L12" s="29">
-        <f>(L10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*L10+C8</f>
-        <v>2692866002</v>
+        <f>(L10-1)*(3*C3+C5+C6)+((L10*(L10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2844418429</v>
       </c>
       <c r="M12" s="29">
-        <f>(M10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*M10+C8</f>
-        <v>3204672002</v>
+        <f>(M10-1)*(3*C3+C5+C6)+((M10*(M10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3385001929</v>
       </c>
       <c r="N12" s="29">
-        <f>(N10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*N10+C8</f>
-        <v>3760978002</v>
+        <f>(N10-1)*(3*C3+C5+C6)+((N10*(N10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3972585429</v>
       </c>
       <c r="O12" s="29">
-        <f>(O10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*O10+C8</f>
-        <v>4361784002</v>
+        <f>(O10-1)*(3*C3+C5+C6)+((O10*(O10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4607168929</v>
       </c>
       <c r="P12" s="29">
-        <f>(P10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*P10+C8</f>
-        <v>5007090002</v>
+        <f>(P10-1)*(3*C3+C5+C6)+((P10*(P10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5288752429</v>
       </c>
       <c r="Q12" s="29">
-        <f>(Q10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Q10+C8</f>
-        <v>5696896002</v>
+        <f>(Q10-1)*(3*C3+C5+C6)+((Q10*(Q10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6017335929</v>
       </c>
       <c r="R12" s="29">
-        <f>(R10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*R10+C8</f>
-        <v>6431202002</v>
+        <f>(R10-1)*(3*C3+C5+C6)+((R10*(R10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6792919429</v>
       </c>
       <c r="S12" s="29">
-        <f>(S10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*S10+C8</f>
-        <v>7210008002</v>
+        <f>(S10-1)*(3*C3+C5+C6)+((S10*(S10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7615502929</v>
       </c>
       <c r="T12" s="29">
-        <f>(T10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*T10+C8</f>
-        <v>8033314002</v>
+        <f>(T10-1)*(3*C3+C5+C6)+((T10*(T10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>8485086429</v>
       </c>
       <c r="U12" s="29">
-        <f>(U10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*U10+C8</f>
-        <v>8901120002</v>
+        <f>(U10-1)*(3*C3+C5+C6)+((U10*(U10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>9401669929</v>
       </c>
       <c r="V12" s="29">
-        <f>(V10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*V10+C8</f>
-        <v>9813426002</v>
+        <f>(V10-1)*(3*C3+C5+C6)+((V10*(V10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>10365253429</v>
       </c>
       <c r="W12" s="29">
-        <f>(W10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*W10+C8</f>
-        <v>10770232002</v>
+        <f>(W10-1)*(3*C3+C5+C6)+((W10*(W10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>11375836929</v>
       </c>
       <c r="X12" s="29">
-        <f>(X10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*X10+C8</f>
-        <v>11771538002</v>
+        <f>(X10-1)*(3*C3+C5+C6)+((X10*(X10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>12433420429</v>
       </c>
       <c r="Y12" s="29">
-        <f>(Y10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Y10+C8</f>
-        <v>12817344002</v>
+        <f>(Y10-1)*(3*C3+C5+C6)+((Y10*(Y10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>13538003929</v>
       </c>
       <c r="Z12" s="29">
-        <f>(Z10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Z10+C8</f>
-        <v>13907650002</v>
+        <f>(Z10-1)*(3*C3+C5+C6)+((Z10*(Z10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>14689587429</v>
       </c>
       <c r="AA12" s="29">
-        <f>(AA10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AA10+C8</f>
-        <v>15042456002</v>
+        <f>(AA10-1)*(3*C3+C5+C6)+((AA10*(AA10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>15888170929</v>
       </c>
       <c r="AB12" s="29">
-        <f>(AB10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AB10+C8</f>
-        <v>16221762002</v>
+        <f>(AB10-1)*(3*C3+C5+C6)+((AB10*(AB10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>17133754429</v>
       </c>
       <c r="AC12" s="29">
-        <f>(AC10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AC10+C8</f>
-        <v>17445568002</v>
+        <f>(AC10-1)*(3*C3+C5+C6)+((AC10*(AC10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>18426337929</v>
       </c>
       <c r="AD12" s="29">
-        <f>(AD10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AD10+C8</f>
-        <v>18713874002</v>
+        <f>(AD10-1)*(3*C3+C5+C6)+((AD10*(AD10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>19765921429</v>
       </c>
       <c r="AE12" s="29">
-        <f>(AE10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AE10+C8</f>
-        <v>20026680002</v>
+        <f>(AE10-1)*(3*C3+C5+C6)+((AE10*(AE10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>21152504929</v>
       </c>
     </row>
     <row r="14" spans="1:31" s="29" customFormat="1" ht="15">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <f>(B10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*B10+H7</f>
-        <v>13817502</v>
+        <f>(B10-1)*(5*H3+4*H4+H5+3*H7)+(B10*(B10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>14231096</v>
       </c>
       <c r="C14" s="29">
-        <f>(C10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*C10+H7</f>
-        <v>55135002</v>
+        <f>(C10-1)*(5*H3+4*H4+H5+3*H7)+(C10*(C10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>56712346</v>
       </c>
       <c r="D14" s="29">
-        <f>(D10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*D10+H7</f>
-        <v>123952502</v>
+        <f>(D10-1)*(5*H3+4*H4+H5+3*H7)+(D10*(D10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>127443596</v>
       </c>
       <c r="E14" s="29">
-        <f>(E10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*E10+H7</f>
-        <v>220270002</v>
+        <f>(E10-1)*(5*H3+4*H4+H5+3*H7)+(E10*(E10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>226424846</v>
       </c>
       <c r="F14" s="29">
-        <f>(F10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*F10+H7</f>
-        <v>344087502</v>
+        <f>(F10-1)*(5*H3+4*H4+H5+3*H7)+(F10*(F10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>353656096</v>
       </c>
       <c r="G14" s="29">
-        <f>(G10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*G10+H7</f>
-        <v>495405002</v>
+        <f>(G10-1)*(5*H3+4*H4+H5+3*H7)+(G10*(G10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>509137346</v>
       </c>
       <c r="H14" s="29">
-        <f>(H10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*H10+H7</f>
-        <v>674222502</v>
+        <f>(H10-1)*(5*H3+4*H4+H5+3*H7)+(H10*(H10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>692868596</v>
       </c>
       <c r="I14" s="29">
-        <f>(I10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*I10+H7</f>
-        <v>880540002</v>
+        <f>(I10-1)*(5*H3+4*H4+H5+3*H7)+(I10*(I10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>904849846</v>
       </c>
       <c r="J14" s="29">
-        <f>(J10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*J10+H7</f>
-        <v>1114357502</v>
+        <f>(J10-1)*(5*H3+4*H4+H5+3*H7)+(J10*(J10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1145081096</v>
       </c>
       <c r="K14" s="29">
-        <f>(K10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*K10+H7</f>
-        <v>1375675002</v>
+        <f>(K10-1)*(5*H3+4*H4+H5+3*H7)+(K10*(K10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1413562346</v>
       </c>
       <c r="L14" s="29">
-        <f>(L10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*L10+H7</f>
-        <v>1664492502</v>
+        <f>(L10-1)*(5*H3+4*H4+H5+3*H7)+(L10*(L10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1710293596</v>
       </c>
       <c r="M14" s="29">
-        <f>(M10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*M10+H7</f>
-        <v>1980810002</v>
+        <f>(M10-1)*(5*H3+4*H4+H5+3*H7)+(M10*(M10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2035274846</v>
       </c>
       <c r="N14" s="29">
-        <f>(N10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*N10+H7</f>
-        <v>2324627502</v>
+        <f>(N10-1)*(5*H3+4*H4+H5+3*H7)+(N10*(N10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2388506096</v>
       </c>
       <c r="O14" s="29">
-        <f>(O10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*O10+H7</f>
-        <v>2695945002</v>
+        <f>(O10-1)*(5*H3+4*H4+H5+3*H7)+(O10*(O10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2769987346</v>
       </c>
       <c r="P14" s="29">
-        <f>(P10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*P10+H7</f>
-        <v>3094762502</v>
+        <f>(P10-1)*(5*H3+4*H4+H5+3*H7)+(P10*(P10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3179718596</v>
       </c>
       <c r="Q14" s="29">
-        <f>(Q10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Q10+H7</f>
-        <v>3521080002</v>
+        <f>(Q10-1)*(5*H3+4*H4+H5+3*H7)+(Q10*(Q10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3617699846</v>
       </c>
       <c r="R14" s="29">
-        <f>(R10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*R10+H7</f>
-        <v>3974897502</v>
+        <f>(R10-1)*(5*H3+4*H4+H5+3*H7)+(R10*(R10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4083931096</v>
       </c>
       <c r="S14" s="29">
-        <f>(S10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*S10+H7</f>
-        <v>4456215002</v>
+        <f>(S10-1)*(5*H3+4*H4+H5+3*H7)+(S10*(S10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4578412346</v>
       </c>
       <c r="T14" s="29">
-        <f>(T10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*T10+H7</f>
-        <v>4965032502</v>
+        <f>(T10-1)*(5*H3+4*H4+H5+3*H7)+(T10*(T10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>5101143596</v>
       </c>
       <c r="U14" s="29">
-        <f>(U10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*U10+H7</f>
-        <v>5501350002</v>
+        <f>(U10-1)*(5*H3+4*H4+H5+3*H7)+(U10*(U10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>5652124846</v>
       </c>
       <c r="V14" s="29">
-        <f>(V10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*V10+H7</f>
-        <v>6065167502</v>
+        <f>(V10-1)*(5*H3+4*H4+H5+3*H7)+(V10*(V10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>6231356096</v>
       </c>
       <c r="W14" s="29">
-        <f>(W10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*W10+H7</f>
-        <v>6656485002</v>
+        <f>(W10-1)*(5*H3+4*H4+H5+3*H7)+(W10*(W10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>6838837346</v>
       </c>
       <c r="X14" s="29">
-        <f>(X10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*X10+H7</f>
-        <v>7275302502</v>
+        <f>(X10-1)*(5*H3+4*H4+H5+3*H7)+(X10*(X10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>7474568596</v>
       </c>
       <c r="Y14" s="29">
-        <f>(Y10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Y10+H7</f>
-        <v>7921620002</v>
+        <f>(Y10-1)*(5*H3+4*H4+H5+3*H7)+(Y10*(Y10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>8138549846</v>
       </c>
       <c r="Z14" s="29">
-        <f>(Z10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Z10+H7</f>
-        <v>8595437502</v>
+        <f>(Z10-1)*(5*H3+4*H4+H5+3*H7)+(Z10*(Z10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>8830781096</v>
       </c>
       <c r="AA14" s="29">
-        <f>(AA10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AA10+H7</f>
-        <v>9296755002</v>
+        <f>(AA10-1)*(5*H3+4*H4+H5+3*H7)+(AA10*(AA10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>9551262346</v>
       </c>
       <c r="AB14" s="29">
-        <f>(AB10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AB10+H7</f>
-        <v>10025572502</v>
+        <f>(AB10-1)*(5*H3+4*H4+H5+3*H7)+(AB10*(AB10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>10299993596</v>
       </c>
       <c r="AC14" s="29">
-        <f>(AC10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AC10+H7</f>
-        <v>10781890002</v>
+        <f>(AC10-1)*(5*H3+4*H4+H5+3*H7)+(AC10*(AC10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>11076974846</v>
       </c>
       <c r="AD14" s="29">
-        <f>(AD10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AD10+H7</f>
-        <v>11565707502</v>
+        <f>(AD10-1)*(5*H3+4*H4+H5+3*H7)+(AD10*(AD10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>11882206096</v>
       </c>
       <c r="AE14" s="29">
-        <f>(AE10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AE10+H7</f>
-        <v>12377025002</v>
+        <f>(AE10-1)*(5*H3+4*H4+H5+3*H7)+(AE10*(AE10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>12715687346</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="20">
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3950,9 +3980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4075,7 +4105,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="20">
@@ -4089,104 +4119,109 @@
       <c r="C8" s="20">
         <v>5</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:31">
       <c r="C9" s="20"/>
       <c r="H9" s="20"/>
     </row>
-    <row r="10" spans="1:31" s="43" customFormat="1">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:31" s="38" customFormat="1">
+      <c r="A10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <v>10000</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="37">
         <v>10500</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="38">
         <v>11000</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="38">
         <v>11500</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="38">
         <v>12500</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <v>13000</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="37">
         <v>13500</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="38">
         <v>14000</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="38">
         <v>14500</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="38">
         <v>15000</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="38">
         <v>15500</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="38">
         <v>16000</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="38">
         <v>16500</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="38">
         <v>17000</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="38">
         <v>17500</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="38">
         <v>18000</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="38">
         <v>18500</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="38">
         <v>19000</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="38">
         <v>19500</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="38">
         <v>20000</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="38">
         <v>20500</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="38">
         <v>21000</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="38">
         <v>21500</v>
       </c>
-      <c r="Y10" s="43">
+      <c r="Y10" s="38">
         <v>22000</v>
       </c>
-      <c r="Z10" s="43">
+      <c r="Z10" s="38">
         <v>22500</v>
       </c>
-      <c r="AA10" s="43">
+      <c r="AA10" s="38">
         <v>23000</v>
       </c>
-      <c r="AB10" s="43">
+      <c r="AB10" s="38">
         <v>23500</v>
       </c>
-      <c r="AC10" s="43">
+      <c r="AC10" s="38">
         <v>24000</v>
       </c>
-      <c r="AD10" s="43">
+      <c r="AD10" s="38">
         <v>24500</v>
       </c>
-      <c r="AE10" s="43">
+      <c r="AE10" s="38">
         <v>25000</v>
       </c>
     </row>
@@ -4195,129 +4230,99 @@
       <c r="C11" s="20"/>
       <c r="H11" s="20"/>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1" ht="15">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:31" s="29" customFormat="1" ht="15">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
-        <f>(B10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*B10+C8</f>
-        <v>22003700005</v>
-      </c>
-      <c r="C12" s="30">
-        <f>(C10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*C10+C8</f>
-        <v>24258885005</v>
-      </c>
-      <c r="D12" s="30">
-        <f>(D10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*D10+C8</f>
-        <v>26624070005</v>
-      </c>
-      <c r="E12" s="30">
-        <f>(E10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*E10+C8</f>
-        <v>29099255005</v>
-      </c>
-      <c r="F12" s="30">
-        <f>(F10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*F10+C8</f>
-        <v>34379625005</v>
-      </c>
-      <c r="G12" s="30">
-        <f>(G10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*G10+C8</f>
-        <v>37184810005</v>
-      </c>
-      <c r="H12" s="30">
-        <f>(H10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*H10+C8</f>
-        <v>40099995005</v>
-      </c>
-      <c r="I12" s="30">
-        <f>(I10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*I10+C8</f>
-        <v>43125180005</v>
-      </c>
-      <c r="J12" s="30">
-        <f>(J10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*J10+C8</f>
-        <v>46260365005</v>
-      </c>
-      <c r="K12" s="30">
-        <f>(K10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*K10+C8</f>
-        <v>49505550005</v>
-      </c>
-      <c r="L12" s="30">
-        <f>(L10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*L10+C8</f>
-        <v>52860735005</v>
-      </c>
-      <c r="M12" s="30">
-        <f>(M10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*M10+C8</f>
-        <v>56325920005</v>
-      </c>
-      <c r="N12" s="30">
-        <f>(N10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*N10+C8</f>
-        <v>59901105005</v>
-      </c>
-      <c r="O12" s="30">
-        <f>(O10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*O10+C8</f>
-        <v>63586290005</v>
-      </c>
-      <c r="P12" s="30">
-        <f>(P10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*P10+C8</f>
-        <v>67381475005</v>
-      </c>
-      <c r="Q12" s="30">
-        <f>(Q10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Q10+C8</f>
-        <v>71286660005</v>
-      </c>
-      <c r="R12" s="30">
-        <f>(R10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*R10+C8</f>
-        <v>75301845005</v>
-      </c>
-      <c r="S12" s="30">
-        <f>(S10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*S10+C8</f>
-        <v>79427030005</v>
-      </c>
-      <c r="T12" s="30">
-        <f>(T10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*T10+C8</f>
-        <v>83662215005</v>
-      </c>
-      <c r="U12" s="30">
-        <f>(U10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*U10+C8</f>
-        <v>88007400005</v>
-      </c>
-      <c r="V12" s="30">
-        <f>(V10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*V10+C8</f>
-        <v>92462585005</v>
-      </c>
-      <c r="W12" s="30">
-        <f>(W10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*W10+C8</f>
-        <v>97027770005</v>
-      </c>
-      <c r="X12" s="30">
-        <f>(X10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*X10+C8</f>
-        <v>101702955005</v>
-      </c>
-      <c r="Y12" s="30">
-        <f>(Y10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Y10+C8</f>
-        <v>106488140005</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>(Z10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Z10+C8</f>
-        <v>111383325005</v>
-      </c>
-      <c r="AA12" s="30">
-        <f>(AA10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AA10+C8</f>
-        <v>116388510005</v>
-      </c>
-      <c r="AB12" s="30">
-        <f>(AB10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AB10+C8</f>
-        <v>121503695005</v>
-      </c>
-      <c r="AC12" s="30">
-        <f>(AC10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AC10+C8</f>
-        <v>126728880005</v>
-      </c>
-      <c r="AD12" s="30">
-        <f>(AD10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AD10+C8</f>
-        <v>132064065005</v>
-      </c>
-      <c r="AE12" s="30">
-        <f>(AE10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AE10+C8</f>
-        <v>137509250005</v>
+      <c r="B12" s="41">
+        <v>23583429</v>
+      </c>
+      <c r="C12" s="29">
+        <v>94166929</v>
+      </c>
+      <c r="D12" s="29">
+        <v>211750429</v>
+      </c>
+      <c r="E12" s="29">
+        <v>376333929</v>
+      </c>
+      <c r="F12" s="29">
+        <v>587917429</v>
+      </c>
+      <c r="G12" s="29">
+        <v>846500929</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1152084429</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1504667929</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1904251429</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2350834929</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2844418429</v>
+      </c>
+      <c r="M12" s="29">
+        <v>3385001929</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3972585429</v>
+      </c>
+      <c r="O12" s="29">
+        <v>4607168929</v>
+      </c>
+      <c r="P12" s="29">
+        <v>5288752429</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>6017335929</v>
+      </c>
+      <c r="R12" s="29">
+        <v>6792919429</v>
+      </c>
+      <c r="S12" s="29">
+        <v>7615502929</v>
+      </c>
+      <c r="T12" s="29">
+        <v>8485086429</v>
+      </c>
+      <c r="U12" s="29">
+        <v>9401669929</v>
+      </c>
+      <c r="V12" s="29">
+        <v>10365253429</v>
+      </c>
+      <c r="W12" s="29">
+        <v>11375836929</v>
+      </c>
+      <c r="X12" s="29">
+        <v>12433420429</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>13538003929</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>14689587429</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>15888170929</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>17133754429</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>18426337929</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>19765921429</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>21152504929</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -4325,128 +4330,98 @@
       <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:31" s="29" customFormat="1" ht="15">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <f>(B10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*B10+H7</f>
-        <v>17504650005</v>
+        <v>14231096</v>
       </c>
       <c r="C14" s="29">
-        <f>(C10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*C10+H7</f>
-        <v>19298632505</v>
+        <v>56712346</v>
       </c>
       <c r="D14" s="29">
-        <f>(D10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*D10+H7</f>
-        <v>21180115005</v>
+        <v>127443596</v>
       </c>
       <c r="E14" s="29">
-        <f>(E10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*E10+H7</f>
-        <v>23149097505</v>
+        <v>226424846</v>
       </c>
       <c r="F14" s="29">
-        <f>(F10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*F10+H7</f>
-        <v>27349562505</v>
+        <v>353656096</v>
       </c>
       <c r="G14" s="29">
-        <f>(G10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*G10+H7</f>
-        <v>29581045005</v>
+        <v>509137346</v>
       </c>
       <c r="H14" s="29">
-        <f>(H10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*H10+H7</f>
-        <v>31900027505</v>
+        <v>692868596</v>
       </c>
       <c r="I14" s="29">
-        <f>(I10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*I10+H7</f>
-        <v>34306510005</v>
+        <v>904849846</v>
       </c>
       <c r="J14" s="29">
-        <f>(J10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*J10+H7</f>
-        <v>36800492505</v>
+        <v>1145081096</v>
       </c>
       <c r="K14" s="29">
-        <f>(K10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*K10+H7</f>
-        <v>39381975005</v>
+        <v>1413562346</v>
       </c>
       <c r="L14" s="29">
-        <f>(L10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*L10+H7</f>
-        <v>42050957505</v>
+        <v>1710293596</v>
       </c>
       <c r="M14" s="29">
-        <f>(M10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*M10+H7</f>
-        <v>44807440005</v>
+        <v>2035274846</v>
       </c>
       <c r="N14" s="29">
-        <f>(N10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*N10+H7</f>
-        <v>47651422505</v>
+        <v>2388506096</v>
       </c>
       <c r="O14" s="29">
-        <f>(O10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*O10+H7</f>
-        <v>50582905005</v>
+        <v>2769987346</v>
       </c>
       <c r="P14" s="29">
-        <f>(P10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*P10+H7</f>
-        <v>53601887505</v>
+        <v>3179718596</v>
       </c>
       <c r="Q14" s="29">
-        <f>(Q10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Q10+H7</f>
-        <v>56708370005</v>
+        <v>3617699846</v>
       </c>
       <c r="R14" s="29">
-        <f>(R10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*R10+H7</f>
-        <v>59902352505</v>
+        <v>4083931096</v>
       </c>
       <c r="S14" s="29">
-        <f>(S10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*S10+H7</f>
-        <v>63183835005</v>
+        <v>4578412346</v>
       </c>
       <c r="T14" s="29">
-        <f>(T10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*T10+H7</f>
-        <v>66552817505</v>
+        <v>5101143596</v>
       </c>
       <c r="U14" s="29">
-        <f>(U10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*U10+H7</f>
-        <v>70009300005</v>
+        <v>5652124846</v>
       </c>
       <c r="V14" s="29">
-        <f>(V10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*V10+H7</f>
-        <v>73553282505</v>
+        <v>6231356096</v>
       </c>
       <c r="W14" s="29">
-        <f>(W10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*W10+H7</f>
-        <v>77184765005</v>
+        <v>6838837346</v>
       </c>
       <c r="X14" s="29">
-        <f>(X10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*X10+H7</f>
-        <v>80903747505</v>
+        <v>7474568596</v>
       </c>
       <c r="Y14" s="29">
-        <f>(Y10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Y10+H7</f>
-        <v>84710230005</v>
+        <v>8138549846</v>
       </c>
       <c r="Z14" s="29">
-        <f>(Z10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Z10+H7</f>
-        <v>88604212505</v>
+        <v>8830781096</v>
       </c>
       <c r="AA14" s="29">
-        <f>(AA10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AA10+H7</f>
-        <v>92585695005</v>
+        <v>9551262346</v>
       </c>
       <c r="AB14" s="29">
-        <f>(AB10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AB10+H7</f>
-        <v>96654677505</v>
+        <v>10299993596</v>
       </c>
       <c r="AC14" s="29">
-        <f>(AC10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AC10+H7</f>
-        <v>100811160005</v>
+        <v>11076974846</v>
       </c>
       <c r="AD14" s="29">
-        <f>(AD10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AD10+H7</f>
-        <v>105055142505</v>
+        <v>11882206096</v>
       </c>
       <c r="AE14" s="29">
-        <f>(AE10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AE10+H7</f>
-        <v>109386625005</v>
+        <v>12715687346</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -4454,7 +4429,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="17" spans="4:4" ht="20">
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4475,8 +4450,8 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4650,98 +4625,98 @@
       <c r="G9" s="12"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:31" s="39" customFormat="1" ht="17">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:31" s="36" customFormat="1" ht="17">
+      <c r="A10" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="36">
         <v>35000</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="35">
         <v>40000</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="36">
         <v>45000</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="36">
         <v>50000</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="36">
         <v>55000</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="36">
         <v>60000</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="35">
         <v>65000</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="36">
         <v>70000</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="36">
         <v>75000</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="36">
         <v>80000</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="36">
         <v>85000</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="36">
         <v>90000</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="36">
         <v>95000</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="36">
         <v>100000</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="36">
         <v>105000</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="36">
         <v>110000</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="36">
         <v>115000</v>
       </c>
-      <c r="S10" s="39">
+      <c r="S10" s="36">
         <v>120000</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="36">
         <v>125000</v>
       </c>
-      <c r="U10" s="39">
+      <c r="U10" s="36">
         <v>130000</v>
       </c>
-      <c r="V10" s="39">
+      <c r="V10" s="36">
         <v>135000</v>
       </c>
-      <c r="W10" s="39">
+      <c r="W10" s="36">
         <v>140000</v>
       </c>
-      <c r="X10" s="39">
+      <c r="X10" s="36">
         <v>145000</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="36">
         <v>150000</v>
       </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="36">
         <v>155000</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AA10" s="36">
         <v>160000</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AB10" s="36">
         <v>165000</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="36">
         <v>170000</v>
       </c>
-      <c r="AD10" s="39">
+      <c r="AD10" s="36">
         <v>175000</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="36">
         <v>180000</v>
       </c>
     </row>
@@ -4755,264 +4730,198 @@
       <c r="G11" s="12"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:31" s="41" customFormat="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:31" s="29" customFormat="1">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40">
-        <f>(B10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*B10+C8</f>
-        <v>227859800001</v>
-      </c>
-      <c r="C12" s="40">
-        <f>(C10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*C10+C8</f>
-        <v>297611200001</v>
-      </c>
-      <c r="D12" s="40">
-        <f>(D10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*D10+C8</f>
-        <v>376662600001</v>
-      </c>
-      <c r="E12" s="40">
-        <f>(E10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*E10+C8</f>
-        <v>465014000001</v>
-      </c>
-      <c r="F12" s="40">
-        <f>(F10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*F10+C8</f>
-        <v>562665400001</v>
-      </c>
-      <c r="G12" s="40">
-        <f>(G10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*G10+C8</f>
-        <v>669616800001</v>
-      </c>
-      <c r="H12" s="40">
-        <f>(H10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*H10+C8</f>
-        <v>785868200001</v>
-      </c>
-      <c r="I12" s="41">
-        <f>(I10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*I10+C8</f>
-        <v>911419600001</v>
-      </c>
-      <c r="J12" s="41">
-        <f>(J10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*J10+C8</f>
-        <v>1046271000001</v>
-      </c>
-      <c r="K12" s="41">
-        <f>(K10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*K10+C8</f>
-        <v>1190422400001</v>
-      </c>
-      <c r="L12" s="41">
-        <f>(L10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*L10+C8</f>
-        <v>1343873800001</v>
-      </c>
-      <c r="M12" s="41">
-        <f>(M10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*M10+C8</f>
-        <v>1506625200001</v>
-      </c>
-      <c r="N12" s="41">
-        <f>(N10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*N10+C8</f>
-        <v>1678676600001</v>
-      </c>
-      <c r="O12" s="41">
-        <f>(O10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*O10+C8</f>
-        <v>1860028000001</v>
-      </c>
-      <c r="P12" s="41">
-        <f>(P10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*P10+C8</f>
-        <v>2050679400001</v>
-      </c>
-      <c r="Q12" s="41">
-        <f>(Q10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Q10+C8</f>
-        <v>2250630800001</v>
-      </c>
-      <c r="R12" s="41">
-        <f>(R10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*R10+C8</f>
-        <v>2459882200001</v>
-      </c>
-      <c r="S12" s="41">
-        <f>(S10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*S10+C8</f>
-        <v>2678433600001</v>
-      </c>
-      <c r="T12" s="41">
-        <f>(T10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*T10+C8</f>
-        <v>2906285000001</v>
-      </c>
-      <c r="U12" s="41">
-        <f>(U10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*U10+C8</f>
-        <v>3143436400001</v>
-      </c>
-      <c r="V12" s="41">
-        <f>(V10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*V10+C8</f>
-        <v>3389887800001</v>
-      </c>
-      <c r="W12" s="41">
-        <f>(W10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*W10+C8</f>
-        <v>3645639200001</v>
-      </c>
-      <c r="X12" s="41">
-        <f>(X10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*X10+C8</f>
-        <v>3910690600001</v>
-      </c>
-      <c r="Y12" s="41">
-        <f>(Y10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Y10+C8</f>
-        <v>4185042000001</v>
-      </c>
-      <c r="Z12" s="41">
-        <f>(Z10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Z10+C8</f>
-        <v>4468693400001</v>
-      </c>
-      <c r="AA12" s="41">
-        <f>(AA10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AA10+C8</f>
-        <v>4761644800001</v>
-      </c>
-      <c r="AB12" s="41">
-        <f>(AB10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AB10+C8</f>
-        <v>5063896200001</v>
-      </c>
-      <c r="AC12" s="41">
-        <f>(AC10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AC10+C8</f>
-        <v>5375447600001</v>
-      </c>
-      <c r="AD12" s="41">
-        <f>(AD10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AD10+C8</f>
-        <v>5696299000001</v>
-      </c>
-      <c r="AE12" s="41">
-        <f>(AE10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AE10+C8</f>
-        <v>6026450400001</v>
+      <c r="B12" s="41">
+        <v>23583429</v>
+      </c>
+      <c r="C12" s="29">
+        <v>94166929</v>
+      </c>
+      <c r="D12" s="29">
+        <v>211750429</v>
+      </c>
+      <c r="E12" s="29">
+        <v>376333929</v>
+      </c>
+      <c r="F12" s="29">
+        <v>587917429</v>
+      </c>
+      <c r="G12" s="29">
+        <v>846500929</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1152084429</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1504667929</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1904251429</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2350834929</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2844418429</v>
+      </c>
+      <c r="M12" s="29">
+        <v>3385001929</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3972585429</v>
+      </c>
+      <c r="O12" s="29">
+        <v>4607168929</v>
+      </c>
+      <c r="P12" s="29">
+        <v>5288752429</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>6017335929</v>
+      </c>
+      <c r="R12" s="29">
+        <v>6792919429</v>
+      </c>
+      <c r="S12" s="29">
+        <v>7615502929</v>
+      </c>
+      <c r="T12" s="29">
+        <v>8485086429</v>
+      </c>
+      <c r="U12" s="29">
+        <v>9401669929</v>
+      </c>
+      <c r="V12" s="29">
+        <v>10365253429</v>
+      </c>
+      <c r="W12" s="29">
+        <v>11375836929</v>
+      </c>
+      <c r="X12" s="29">
+        <v>12433420429</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>13538003929</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>14689587429</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>15888170929</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>17133754429</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>18426337929</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>19765921429</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>21152504929</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="25"/>
+      <c r="C13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:31" s="29" customFormat="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <f>(B10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*B10+H7</f>
-        <v>171514560001</v>
+        <v>14231096</v>
       </c>
       <c r="C14" s="29">
-        <f>(C10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*C10+H7</f>
-        <v>224016640001</v>
+        <v>56712346</v>
       </c>
       <c r="D14" s="29">
-        <f>(D10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*D10+H7</f>
-        <v>283518720001</v>
+        <v>127443596</v>
       </c>
       <c r="E14" s="29">
-        <f>(E10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*E10+H7</f>
-        <v>350020800001</v>
+        <v>226424846</v>
       </c>
       <c r="F14" s="29">
-        <f>(F10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*F10+H7</f>
-        <v>423522880001</v>
+        <v>353656096</v>
       </c>
       <c r="G14" s="29">
-        <f>(G10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*G10+H7</f>
-        <v>504024960001</v>
+        <v>509137346</v>
       </c>
       <c r="H14" s="29">
-        <f>(H10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*H10+H7</f>
-        <v>591527040001</v>
+        <v>692868596</v>
       </c>
       <c r="I14" s="29">
-        <f>(I10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*I10+H7</f>
-        <v>686029120001</v>
+        <v>904849846</v>
       </c>
       <c r="J14" s="29">
-        <f>(J10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*J10+H7</f>
-        <v>787531200001</v>
+        <v>1145081096</v>
       </c>
       <c r="K14" s="29">
-        <f>(K10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*K10+H7</f>
-        <v>896033280001</v>
+        <v>1413562346</v>
       </c>
       <c r="L14" s="29">
-        <f>(L10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*L10+H7</f>
-        <v>1011535360001</v>
+        <v>1710293596</v>
       </c>
       <c r="M14" s="29">
-        <f>(M10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*M10+H7</f>
-        <v>1134037440001</v>
+        <v>2035274846</v>
       </c>
       <c r="N14" s="29">
-        <f>(N10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*N10+H7</f>
-        <v>1263539520001</v>
+        <v>2388506096</v>
       </c>
       <c r="O14" s="29">
-        <f>(O10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*O10+H7</f>
-        <v>1400041600001</v>
+        <v>2769987346</v>
       </c>
       <c r="P14" s="29">
-        <f>(P10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*P10+H7</f>
-        <v>1543543680001</v>
+        <v>3179718596</v>
       </c>
       <c r="Q14" s="29">
-        <f>(Q10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Q10+H7</f>
-        <v>1694045760001</v>
+        <v>3617699846</v>
       </c>
       <c r="R14" s="29">
-        <f>(R10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*R10+H7</f>
-        <v>1851547840001</v>
+        <v>4083931096</v>
       </c>
       <c r="S14" s="29">
-        <f>(S10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*S10+H7</f>
-        <v>2016049920001</v>
+        <v>4578412346</v>
       </c>
       <c r="T14" s="29">
-        <f>(T10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*T10+H7</f>
-        <v>2187552000001</v>
+        <v>5101143596</v>
       </c>
       <c r="U14" s="29">
-        <f>(U10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*U10+H7</f>
-        <v>2366054080001</v>
+        <v>5652124846</v>
       </c>
       <c r="V14" s="29">
-        <f>(V10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*V10+H7</f>
-        <v>2551556160001</v>
+        <v>6231356096</v>
       </c>
       <c r="W14" s="29">
-        <f>(W10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*W10+H7</f>
-        <v>2744058240001</v>
+        <v>6838837346</v>
       </c>
       <c r="X14" s="29">
-        <f>(X10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*X10+H7</f>
-        <v>2943560320001</v>
+        <v>7474568596</v>
       </c>
       <c r="Y14" s="29">
-        <f>(Y10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Y10+H7</f>
-        <v>3150062400001</v>
+        <v>8138549846</v>
       </c>
       <c r="Z14" s="29">
-        <f>(Z10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Z10+H7</f>
-        <v>3363564480001</v>
+        <v>8830781096</v>
       </c>
       <c r="AA14" s="29">
-        <f>(AA10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AA10+H7</f>
-        <v>3584066560001</v>
+        <v>9551262346</v>
       </c>
       <c r="AB14" s="29">
-        <f>(AB10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AB10+H7</f>
-        <v>3811568640001</v>
+        <v>10299993596</v>
       </c>
       <c r="AC14" s="29">
-        <f>(AC10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AC10+H7</f>
-        <v>4046070720001</v>
+        <v>11076974846</v>
       </c>
       <c r="AD14" s="29">
-        <f>(AD10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AD10+H7</f>
-        <v>4287572800001</v>
+        <v>11882206096</v>
       </c>
       <c r="AE14" s="29">
-        <f>(AE10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AE10+H7</f>
-        <v>4536074880001</v>
+        <v>12715687346</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="17">
@@ -5026,7 +4935,7 @@
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="1:31" ht="18">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5047,7 +4956,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5225,98 +5134,98 @@
       <c r="G9" s="12"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="1:31" s="43" customFormat="1" ht="17">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:31" s="38" customFormat="1" ht="17">
+      <c r="A10" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="38">
         <v>40000</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="38">
         <v>45000</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="38">
         <v>50000</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="38">
         <v>55000</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="38">
         <v>60000</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="38">
         <v>65000</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="38">
         <v>70000</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="38">
         <v>75000</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="38">
         <v>80000</v>
       </c>
-      <c r="K10" s="43">
+      <c r="K10" s="38">
         <v>85000</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="38">
         <v>90000</v>
       </c>
-      <c r="M10" s="43">
+      <c r="M10" s="38">
         <v>95000</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="38">
         <v>100000</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="38">
         <v>105000</v>
       </c>
-      <c r="P10" s="43">
+      <c r="P10" s="38">
         <v>110000</v>
       </c>
-      <c r="Q10" s="43">
+      <c r="Q10" s="38">
         <v>115000</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="38">
         <v>120000</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="38">
         <v>125000</v>
       </c>
-      <c r="T10" s="43">
+      <c r="T10" s="38">
         <v>130000</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="38">
         <v>135000</v>
       </c>
-      <c r="V10" s="43">
+      <c r="V10" s="38">
         <v>140000</v>
       </c>
-      <c r="W10" s="43">
+      <c r="W10" s="38">
         <v>145000</v>
       </c>
-      <c r="X10" s="43">
+      <c r="X10" s="38">
         <v>150000</v>
       </c>
-      <c r="Y10" s="43">
+      <c r="Y10" s="38">
         <v>155000</v>
       </c>
-      <c r="Z10" s="43">
+      <c r="Z10" s="38">
         <v>160000</v>
       </c>
-      <c r="AA10" s="43">
+      <c r="AA10" s="38">
         <v>165000</v>
       </c>
-      <c r="AB10" s="43">
+      <c r="AB10" s="38">
         <v>170000</v>
       </c>
-      <c r="AC10" s="43">
+      <c r="AC10" s="38">
         <v>175000</v>
       </c>
-      <c r="AD10" s="43">
+      <c r="AD10" s="38">
         <v>180000</v>
       </c>
-      <c r="AE10" s="43">
+      <c r="AE10" s="38">
         <v>185000</v>
       </c>
     </row>
@@ -5330,264 +5239,198 @@
       <c r="G11" s="12"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:31" s="29" customFormat="1">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
-        <f>(B10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*B10+C8</f>
-        <v>337610960008</v>
-      </c>
-      <c r="C12" s="30">
-        <f>(C10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*C10+C8</f>
-        <v>427287330008</v>
-      </c>
-      <c r="D12" s="30">
-        <f>(D10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*D10+C8</f>
-        <v>527513700008</v>
-      </c>
-      <c r="E12" s="30">
-        <f>(E10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*E10+C8</f>
-        <v>638290070008</v>
-      </c>
-      <c r="F12" s="30">
-        <f>(F10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*F10+C8</f>
-        <v>759616440008</v>
-      </c>
-      <c r="G12" s="30">
-        <f>(G10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*G10+C8</f>
-        <v>891492810008</v>
-      </c>
-      <c r="H12" s="30">
-        <f>(H10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*H10+C8</f>
-        <v>1033919180008</v>
-      </c>
-      <c r="I12" s="30">
-        <f>(I10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*I10+C8</f>
-        <v>1186895550008</v>
-      </c>
-      <c r="J12" s="30">
-        <f>(J10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*J10+C8</f>
-        <v>1350421920008</v>
-      </c>
-      <c r="K12" s="30">
-        <f>(K10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*K10+C8</f>
-        <v>1524498290008</v>
-      </c>
-      <c r="L12" s="30">
-        <f>(L10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*L10+C8</f>
-        <v>1709124660008</v>
-      </c>
-      <c r="M12" s="30">
-        <f>(M10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*M10+C8</f>
-        <v>1904301030008</v>
-      </c>
-      <c r="N12" s="30">
-        <f>(N10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*N10+C8</f>
-        <v>2110027400008</v>
-      </c>
-      <c r="O12" s="30">
-        <f>(O10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*O10+C8</f>
-        <v>2326303770008</v>
-      </c>
-      <c r="P12" s="30">
-        <f>(P10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*P10+C8</f>
-        <v>2553130140008</v>
-      </c>
-      <c r="Q12" s="30">
-        <f>(Q10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Q10+C8</f>
-        <v>2790506510008</v>
-      </c>
-      <c r="R12" s="30">
-        <f>(R10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*R10+C8</f>
-        <v>3038432880008</v>
-      </c>
-      <c r="S12" s="30">
-        <f>(S10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*S10+C8</f>
-        <v>3296909250008</v>
-      </c>
-      <c r="T12" s="30">
-        <f>(T10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*T10+C8</f>
-        <v>3565935620008</v>
-      </c>
-      <c r="U12" s="30">
-        <f>(U10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*U10+C8</f>
-        <v>3845511990008</v>
-      </c>
-      <c r="V12" s="30">
-        <f>(V10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*V10+C8</f>
-        <v>4135638360008</v>
-      </c>
-      <c r="W12" s="30">
-        <f>(W10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*W10+C8</f>
-        <v>4436314730008</v>
-      </c>
-      <c r="X12" s="30">
-        <f>(X10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*X10+C8</f>
-        <v>4747541100008</v>
-      </c>
-      <c r="Y12" s="30">
-        <f>(Y10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Y10+C8</f>
-        <v>5069317470008</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>(Z10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Z10+C8</f>
-        <v>5401643840008</v>
-      </c>
-      <c r="AA12" s="30">
-        <f>(AA10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AA10+C8</f>
-        <v>5744520210008</v>
-      </c>
-      <c r="AB12" s="30">
-        <f>(AB10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AB10+C8</f>
-        <v>6097946580008</v>
-      </c>
-      <c r="AC12" s="30">
-        <f>(AC10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AC10+C8</f>
-        <v>6461922950008</v>
-      </c>
-      <c r="AD12" s="30">
-        <f>(AD10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AD10+C8</f>
-        <v>6836449320008</v>
-      </c>
-      <c r="AE12" s="30">
-        <f>(AE10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AE10+C8</f>
-        <v>7221525690008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="27"/>
+      <c r="B12" s="41">
+        <v>23583429</v>
+      </c>
+      <c r="C12" s="29">
+        <v>94166929</v>
+      </c>
+      <c r="D12" s="29">
+        <v>211750429</v>
+      </c>
+      <c r="E12" s="29">
+        <v>376333929</v>
+      </c>
+      <c r="F12" s="29">
+        <v>587917429</v>
+      </c>
+      <c r="G12" s="29">
+        <v>846500929</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1152084429</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1504667929</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1904251429</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2350834929</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2844418429</v>
+      </c>
+      <c r="M12" s="29">
+        <v>3385001929</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3972585429</v>
+      </c>
+      <c r="O12" s="29">
+        <v>4607168929</v>
+      </c>
+      <c r="P12" s="29">
+        <v>5288752429</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>6017335929</v>
+      </c>
+      <c r="R12" s="29">
+        <v>6792919429</v>
+      </c>
+      <c r="S12" s="29">
+        <v>7615502929</v>
+      </c>
+      <c r="T12" s="29">
+        <v>8485086429</v>
+      </c>
+      <c r="U12" s="29">
+        <v>9401669929</v>
+      </c>
+      <c r="V12" s="29">
+        <v>10365253429</v>
+      </c>
+      <c r="W12" s="29">
+        <v>11375836929</v>
+      </c>
+      <c r="X12" s="29">
+        <v>12433420429</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>13538003929</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>14689587429</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>15888170929</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>17133754429</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>18426337929</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>19765921429</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>21152504929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="17">
+      <c r="C13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:31" s="29" customFormat="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <f>(B10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*B10+H7</f>
-        <v>216012360008</v>
+        <v>14231096</v>
       </c>
       <c r="C14" s="29">
-        <f>(C10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*C10+H7</f>
-        <v>273388905008</v>
+        <v>56712346</v>
       </c>
       <c r="D14" s="29">
-        <f>(D10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*D10+H7</f>
-        <v>337515450008</v>
+        <v>127443596</v>
       </c>
       <c r="E14" s="29">
-        <f>(E10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*E10+H7</f>
-        <v>408391995008</v>
+        <v>226424846</v>
       </c>
       <c r="F14" s="29">
-        <f>(F10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*F10+H7</f>
-        <v>486018540008</v>
+        <v>353656096</v>
       </c>
       <c r="G14" s="29">
-        <f>(G10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*G10+H7</f>
-        <v>570395085008</v>
+        <v>509137346</v>
       </c>
       <c r="H14" s="29">
-        <f>(H10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*H10+H7</f>
-        <v>661521630008</v>
+        <v>692868596</v>
       </c>
       <c r="I14" s="29">
-        <f>(I10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*I10+H7</f>
-        <v>759398175008</v>
+        <v>904849846</v>
       </c>
       <c r="J14" s="29">
-        <f>(J10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*J10+H7</f>
-        <v>864024720008</v>
+        <v>1145081096</v>
       </c>
       <c r="K14" s="29">
-        <f>(K10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*K10+H7</f>
-        <v>975401265008</v>
+        <v>1413562346</v>
       </c>
       <c r="L14" s="29">
-        <f>(L10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*L10+H7</f>
-        <v>1093527810008</v>
+        <v>1710293596</v>
       </c>
       <c r="M14" s="29">
-        <f>(M10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*M10+H7</f>
-        <v>1218404355008</v>
+        <v>2035274846</v>
       </c>
       <c r="N14" s="29">
-        <f>(N10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*N10+H7</f>
-        <v>1350030900008</v>
+        <v>2388506096</v>
       </c>
       <c r="O14" s="29">
-        <f>(O10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*O10+H7</f>
-        <v>1488407445008</v>
+        <v>2769987346</v>
       </c>
       <c r="P14" s="29">
-        <f>(P10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*P10+H7</f>
-        <v>1633533990008</v>
+        <v>3179718596</v>
       </c>
       <c r="Q14" s="29">
-        <f>(Q10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Q10+H7</f>
-        <v>1785410535008</v>
+        <v>3617699846</v>
       </c>
       <c r="R14" s="29">
-        <f>(R10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*R10+H7</f>
-        <v>1944037080008</v>
+        <v>4083931096</v>
       </c>
       <c r="S14" s="29">
-        <f>(S10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*S10+H7</f>
-        <v>2109413625008</v>
+        <v>4578412346</v>
       </c>
       <c r="T14" s="29">
-        <f>(T10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*T10+H7</f>
-        <v>2281540170008</v>
+        <v>5101143596</v>
       </c>
       <c r="U14" s="29">
-        <f>(U10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*U10+H7</f>
-        <v>2460416715008</v>
+        <v>5652124846</v>
       </c>
       <c r="V14" s="29">
-        <f>(V10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*V10+H7</f>
-        <v>2646043260008</v>
+        <v>6231356096</v>
       </c>
       <c r="W14" s="29">
-        <f>(W10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*W10+H7</f>
-        <v>2838419805008</v>
+        <v>6838837346</v>
       </c>
       <c r="X14" s="29">
-        <f>(X10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*X10+H7</f>
-        <v>3037546350008</v>
+        <v>7474568596</v>
       </c>
       <c r="Y14" s="29">
-        <f>(Y10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Y10+H7</f>
-        <v>3243422895008</v>
+        <v>8138549846</v>
       </c>
       <c r="Z14" s="29">
-        <f>(Z10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Z10+H7</f>
-        <v>3456049440008</v>
+        <v>8830781096</v>
       </c>
       <c r="AA14" s="29">
-        <f>(AA10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AA10+H7</f>
-        <v>3675425985008</v>
+        <v>9551262346</v>
       </c>
       <c r="AB14" s="29">
-        <f>(AB10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AB10+H7</f>
-        <v>3901552530008</v>
+        <v>10299993596</v>
       </c>
       <c r="AC14" s="29">
-        <f>(AC10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AC10+H7</f>
-        <v>4134429075008</v>
+        <v>11076974846</v>
       </c>
       <c r="AD14" s="29">
-        <f>(AD10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AD10+H7</f>
-        <v>4374055620008</v>
+        <v>11882206096</v>
       </c>
       <c r="AE14" s="29">
-        <f>(AE10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AE10+H7</f>
-        <v>4620432165008</v>
+        <v>12715687346</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5601,7 +5444,7 @@
       <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:31" ht="18">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5623,7 +5466,7 @@
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5797,98 +5640,98 @@
       <c r="G9" s="12"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:31" s="45" customFormat="1" ht="17">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:31" s="40" customFormat="1" ht="17">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="40">
         <v>70000</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="39">
         <v>75000</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="40">
         <v>80000</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="39">
         <v>85000</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="40">
         <v>90000</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="39">
         <v>95000</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="40">
         <v>100000</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="39">
         <v>105000</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="40">
         <v>110000</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="39">
         <v>115000</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="40">
         <v>120000</v>
       </c>
-      <c r="M10" s="44">
+      <c r="M10" s="39">
         <v>125000</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="40">
         <v>130000</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="39">
         <v>135000</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="40">
         <v>140000</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="39">
         <v>145000</v>
       </c>
-      <c r="R10" s="45">
+      <c r="R10" s="40">
         <v>150000</v>
       </c>
-      <c r="S10" s="44">
+      <c r="S10" s="39">
         <v>155000</v>
       </c>
-      <c r="T10" s="45">
+      <c r="T10" s="40">
         <v>160000</v>
       </c>
-      <c r="U10" s="44">
+      <c r="U10" s="39">
         <v>165000</v>
       </c>
-      <c r="V10" s="45">
+      <c r="V10" s="40">
         <v>170000</v>
       </c>
-      <c r="W10" s="44">
+      <c r="W10" s="39">
         <v>175000</v>
       </c>
-      <c r="X10" s="45">
+      <c r="X10" s="40">
         <v>180000</v>
       </c>
-      <c r="Y10" s="44">
+      <c r="Y10" s="39">
         <v>185000</v>
       </c>
-      <c r="Z10" s="45">
+      <c r="Z10" s="40">
         <v>190000</v>
       </c>
-      <c r="AA10" s="44">
+      <c r="AA10" s="39">
         <v>195000</v>
       </c>
-      <c r="AB10" s="45">
+      <c r="AB10" s="40">
         <v>200000</v>
       </c>
-      <c r="AC10" s="44">
+      <c r="AC10" s="39">
         <v>205000</v>
       </c>
-      <c r="AD10" s="45">
+      <c r="AD10" s="40">
         <v>210000</v>
       </c>
-      <c r="AE10" s="44">
+      <c r="AE10" s="39">
         <v>215000</v>
       </c>
     </row>
@@ -5902,264 +5745,198 @@
       <c r="G11" s="12"/>
       <c r="H11" s="17"/>
     </row>
-    <row r="12" spans="1:31" s="30" customFormat="1">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:31" s="29" customFormat="1">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="30">
-        <f>(B10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*B10+C8</f>
-        <v>774215330006</v>
-      </c>
-      <c r="C12" s="30">
-        <f>(C10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*C10+C8</f>
-        <v>888766425006</v>
-      </c>
-      <c r="D12" s="30">
-        <f>(D10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*D10+C8</f>
-        <v>1011217520006</v>
-      </c>
-      <c r="E12" s="30">
-        <f>(E10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*E10+C8</f>
-        <v>1141568615006</v>
-      </c>
-      <c r="F12" s="30">
-        <f>(F10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*F10+C8</f>
-        <v>1279819710006</v>
-      </c>
-      <c r="G12" s="30">
-        <f>(G10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*G10+C8</f>
-        <v>1425970805006</v>
-      </c>
-      <c r="H12" s="30">
-        <f>(H10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*H10+C8</f>
-        <v>1580021900006</v>
-      </c>
-      <c r="I12" s="30">
-        <f>(I10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*I10+C8</f>
-        <v>1741972995006</v>
-      </c>
-      <c r="J12" s="30">
-        <f>(J10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*J10+C8</f>
-        <v>1911824090006</v>
-      </c>
-      <c r="K12" s="30">
-        <f>(K10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*K10+C8</f>
-        <v>2089575185006</v>
-      </c>
-      <c r="L12" s="30">
-        <f>(L10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*L10+C8</f>
-        <v>2275226280006</v>
-      </c>
-      <c r="M12" s="30">
-        <f>(M10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*M10+C8</f>
-        <v>2468777375006</v>
-      </c>
-      <c r="N12" s="30">
-        <f>(N10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*N10+C8</f>
-        <v>2670228470006</v>
-      </c>
-      <c r="O12" s="30">
-        <f>(O10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*O10+C8</f>
-        <v>2879579565006</v>
-      </c>
-      <c r="P12" s="30">
-        <f>(P10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*P10+C8</f>
-        <v>3096830660006</v>
-      </c>
-      <c r="Q12" s="30">
-        <f>(Q10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Q10+C8</f>
-        <v>3321981755006</v>
-      </c>
-      <c r="R12" s="30">
-        <f>(R10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*R10+C8</f>
-        <v>3555032850006</v>
-      </c>
-      <c r="S12" s="30">
-        <f>(S10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*S10+C8</f>
-        <v>3795983945006</v>
-      </c>
-      <c r="T12" s="30">
-        <f>(T10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*T10+C8</f>
-        <v>4044835040006</v>
-      </c>
-      <c r="U12" s="30">
-        <f>(U10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*U10+C8</f>
-        <v>4301586135006</v>
-      </c>
-      <c r="V12" s="30">
-        <f>(V10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*V10+C8</f>
-        <v>4566237230006</v>
-      </c>
-      <c r="W12" s="30">
-        <f>(W10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*W10+C8</f>
-        <v>4838788325006</v>
-      </c>
-      <c r="X12" s="30">
-        <f>(X10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*X10+C8</f>
-        <v>5119239420006</v>
-      </c>
-      <c r="Y12" s="30">
-        <f>(Y10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Y10+C8</f>
-        <v>5407590515006</v>
-      </c>
-      <c r="Z12" s="30">
-        <f>(Z10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*Z10+C8</f>
-        <v>5703841610006</v>
-      </c>
-      <c r="AA12" s="30">
-        <f>(AA10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AA10+C8</f>
-        <v>6007992705006</v>
-      </c>
-      <c r="AB12" s="30">
-        <f>(AB10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AB10+C8</f>
-        <v>6320043800006</v>
-      </c>
-      <c r="AC12" s="30">
-        <f>(AC10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AC10+C8</f>
-        <v>6639994895006</v>
-      </c>
-      <c r="AD12" s="30">
-        <f>(AD10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AD10+C8</f>
-        <v>6967845990006</v>
-      </c>
-      <c r="AE12" s="30">
-        <f>(AE10^2)*(2*C5+2*C7+2*C4+C3)+(2*C3+4*C6+5*C4)*AE10+C8</f>
-        <v>7303597085006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="17"/>
+      <c r="B12" s="41">
+        <v>23583429</v>
+      </c>
+      <c r="C12" s="29">
+        <v>94166929</v>
+      </c>
+      <c r="D12" s="29">
+        <v>211750429</v>
+      </c>
+      <c r="E12" s="29">
+        <v>376333929</v>
+      </c>
+      <c r="F12" s="29">
+        <v>587917429</v>
+      </c>
+      <c r="G12" s="29">
+        <v>846500929</v>
+      </c>
+      <c r="H12" s="29">
+        <v>1152084429</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1504667929</v>
+      </c>
+      <c r="J12" s="29">
+        <v>1904251429</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2350834929</v>
+      </c>
+      <c r="L12" s="29">
+        <v>2844418429</v>
+      </c>
+      <c r="M12" s="29">
+        <v>3385001929</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3972585429</v>
+      </c>
+      <c r="O12" s="29">
+        <v>4607168929</v>
+      </c>
+      <c r="P12" s="29">
+        <v>5288752429</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>6017335929</v>
+      </c>
+      <c r="R12" s="29">
+        <v>6792919429</v>
+      </c>
+      <c r="S12" s="29">
+        <v>7615502929</v>
+      </c>
+      <c r="T12" s="29">
+        <v>8485086429</v>
+      </c>
+      <c r="U12" s="29">
+        <v>9401669929</v>
+      </c>
+      <c r="V12" s="29">
+        <v>10365253429</v>
+      </c>
+      <c r="W12" s="29">
+        <v>11375836929</v>
+      </c>
+      <c r="X12" s="29">
+        <v>12433420429</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>13538003929</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>14689587429</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>15888170929</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>17133754429</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>18426337929</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>19765921429</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>21152504929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="17">
+      <c r="C13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:31" s="29" customFormat="1">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <f>(B10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*B10+H7</f>
-        <v>504721210006</v>
+        <v>14231096</v>
       </c>
       <c r="C14" s="29">
-        <f>(C10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*C10+H7</f>
-        <v>579397725006</v>
+        <v>56712346</v>
       </c>
       <c r="D14" s="29">
-        <f>(D10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*D10+H7</f>
-        <v>659224240006</v>
+        <v>127443596</v>
       </c>
       <c r="E14" s="29">
-        <f>(E10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*E10+H7</f>
-        <v>744200755006</v>
+        <v>226424846</v>
       </c>
       <c r="F14" s="29">
-        <f>(F10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*F10+H7</f>
-        <v>834327270006</v>
+        <v>353656096</v>
       </c>
       <c r="G14" s="29">
-        <f>(G10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*G10+H7</f>
-        <v>929603785006</v>
+        <v>509137346</v>
       </c>
       <c r="H14" s="29">
-        <f>(H10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*H10+H7</f>
-        <v>1030030300006</v>
+        <v>692868596</v>
       </c>
       <c r="I14" s="29">
-        <f>(I10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*I10+H7</f>
-        <v>1135606815006</v>
+        <v>904849846</v>
       </c>
       <c r="J14" s="29">
-        <f>(J10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*J10+H7</f>
-        <v>1246333330006</v>
+        <v>1145081096</v>
       </c>
       <c r="K14" s="29">
-        <f>(K10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*K10+H7</f>
-        <v>1362209845006</v>
+        <v>1413562346</v>
       </c>
       <c r="L14" s="29">
-        <f>(L10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*L10+H7</f>
-        <v>1483236360006</v>
+        <v>1710293596</v>
       </c>
       <c r="M14" s="29">
-        <f>(M10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*M10+H7</f>
-        <v>1609412875006</v>
+        <v>2035274846</v>
       </c>
       <c r="N14" s="29">
-        <f>(N10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*N10+H7</f>
-        <v>1740739390006</v>
+        <v>2388506096</v>
       </c>
       <c r="O14" s="29">
-        <f>(O10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*O10+H7</f>
-        <v>1877215905006</v>
+        <v>2769987346</v>
       </c>
       <c r="P14" s="29">
-        <f>(P10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*P10+H7</f>
-        <v>2018842420006</v>
+        <v>3179718596</v>
       </c>
       <c r="Q14" s="29">
-        <f>(Q10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Q10+H7</f>
-        <v>2165618935006</v>
+        <v>3617699846</v>
       </c>
       <c r="R14" s="29">
-        <f>(R10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*R10+H7</f>
-        <v>2317545450006</v>
+        <v>4083931096</v>
       </c>
       <c r="S14" s="29">
-        <f>(S10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*S10+H7</f>
-        <v>2474621965006</v>
+        <v>4578412346</v>
       </c>
       <c r="T14" s="29">
-        <f>(T10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*T10+H7</f>
-        <v>2636848480006</v>
+        <v>5101143596</v>
       </c>
       <c r="U14" s="29">
-        <f>(U10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*U10+H7</f>
-        <v>2804224995006</v>
+        <v>5652124846</v>
       </c>
       <c r="V14" s="29">
-        <f>(V10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*V10+H7</f>
-        <v>2976751510006</v>
+        <v>6231356096</v>
       </c>
       <c r="W14" s="29">
-        <f>(W10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*W10+H7</f>
-        <v>3154428025006</v>
+        <v>6838837346</v>
       </c>
       <c r="X14" s="29">
-        <f>(X10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*X10+H7</f>
-        <v>3337254540006</v>
+        <v>7474568596</v>
       </c>
       <c r="Y14" s="29">
-        <f>(Y10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Y10+H7</f>
-        <v>3525231055006</v>
+        <v>8138549846</v>
       </c>
       <c r="Z14" s="29">
-        <f>(Z10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*Z10+H7</f>
-        <v>3718357570006</v>
+        <v>8830781096</v>
       </c>
       <c r="AA14" s="29">
-        <f>(AA10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AA10+H7</f>
-        <v>3916634085006</v>
+        <v>9551262346</v>
       </c>
       <c r="AB14" s="29">
-        <f>(AB10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AB10+H7</f>
-        <v>4120060600006</v>
+        <v>10299993596</v>
       </c>
       <c r="AC14" s="29">
-        <f>(AC10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AC10+H7</f>
-        <v>4328637115006</v>
+        <v>11076974846</v>
       </c>
       <c r="AD14" s="29">
-        <f>(AD10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AD10+H7</f>
-        <v>4542363630006</v>
+        <v>11882206096</v>
       </c>
       <c r="AE14" s="29">
-        <f>(AE10^2)*(2*H4+H5+H3)+(5*H3+H6+5*H4+H7)*AE10+H7</f>
-        <v>4761240145006</v>
+        <v>12715687346</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6173,7 +5950,7 @@
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:31" ht="18">
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="31" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
+++ b/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Configuración 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="13">
   <si>
     <t>Tarea número 1 -Análisis de algoritmos - Emmanuel Rosales Salas - 2013108931</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>K6 = Return</t>
-  </si>
-  <si>
-    <t>K5 = Return</t>
   </si>
   <si>
     <t>Insertion Sort</t>
@@ -236,8 +233,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -359,7 +364,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -375,6 +380,10 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -390,6 +399,10 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,17 +434,7 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.117900553174524"/>
-          <c:y val="0.0166435506241331"/>
-          <c:w val="0.701509643177514"/>
-          <c:h val="0.893629364290629"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -873,11 +876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2122585272"/>
-        <c:axId val="-2120281896"/>
+        <c:axId val="-2092508936"/>
+        <c:axId val="-2092513240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2122585272"/>
+        <c:axId val="-2092508936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120281896"/>
+        <c:crossAx val="-2092513240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2120281896"/>
+        <c:axId val="-2092513240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122585272"/>
+        <c:crossAx val="-2092508936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -944,9 +947,19 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.121870591214383"/>
+          <c:y val="0.042352988257143"/>
+          <c:w val="0.703347240477023"/>
+          <c:h val="0.909772572234448"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1068,94 +1081,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.3583429E7</c:v>
+                  <c:v>2.750439984E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4166929E7</c:v>
+                  <c:v>3.032336984E10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.11750429E8</c:v>
+                  <c:v>3.327983984E10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.76333929E8</c:v>
+                  <c:v>3.637380984E10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87917429E8</c:v>
+                  <c:v>4.297424984E10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.46500929E8</c:v>
+                  <c:v>4.648071984E10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.152084429E9</c:v>
+                  <c:v>5.012468984E10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.504667929E9</c:v>
+                  <c:v>5.390615984E10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.904251429E9</c:v>
+                  <c:v>5.782512984E10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.350834929E9</c:v>
+                  <c:v>6.188159984E10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.844418429E9</c:v>
+                  <c:v>6.607556984E10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.385001929E9</c:v>
+                  <c:v>7.040703984E10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.972585429E9</c:v>
+                  <c:v>7.487600984E10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.607168929E9</c:v>
+                  <c:v>7.948247984E10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.288752429E9</c:v>
+                  <c:v>8.422644984E10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.017335929E9</c:v>
+                  <c:v>8.910791984E10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.792919429E9</c:v>
+                  <c:v>9.412688984E10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.615502929E9</c:v>
+                  <c:v>9.928335984E10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.485086429E9</c:v>
+                  <c:v>1.0457732984E11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.401669929E9</c:v>
+                  <c:v>1.1000879984E11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0365253429E10</c:v>
+                  <c:v>1.1557776984E11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1375836929E10</c:v>
+                  <c:v>1.2128423984E11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2433420429E10</c:v>
+                  <c:v>1.2712820984E11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3538003929E10</c:v>
+                  <c:v>1.3310967984E11</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4689587429E10</c:v>
+                  <c:v>1.3922864984E11</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5888170929E10</c:v>
+                  <c:v>1.4548511984E11</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7133754429E10</c:v>
+                  <c:v>1.5187908984E11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8426337929E10</c:v>
+                  <c:v>1.5841055984E11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9765921429E10</c:v>
+                  <c:v>1.6507952984E11</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1152504929E10</c:v>
+                  <c:v>1.7188599984E11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,94 +1295,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.4231096E7</c:v>
+                  <c:v>1.5005999555E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6712346E7</c:v>
+                  <c:v>1.6543799555E10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27443596E8</c:v>
+                  <c:v>1.8156599555E10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.26424846E8</c:v>
+                  <c:v>1.9844399555E10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.53656096E8</c:v>
+                  <c:v>2.3444999555E10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.09137346E8</c:v>
+                  <c:v>2.5357799555E10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.92868596E8</c:v>
+                  <c:v>2.7345599555E10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.04849846E8</c:v>
+                  <c:v>2.9408399555E10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.145081096E9</c:v>
+                  <c:v>3.1546199555E10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413562346E9</c:v>
+                  <c:v>3.3758999555E10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.710293596E9</c:v>
+                  <c:v>3.6046799555E10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.035274846E9</c:v>
+                  <c:v>3.8409599555E10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.388506096E9</c:v>
+                  <c:v>4.0847399555E10</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.769987346E9</c:v>
+                  <c:v>4.3360199555E10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.179718596E9</c:v>
+                  <c:v>4.5947999555E10</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.617699846E9</c:v>
+                  <c:v>4.8610799555E10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.083931096E9</c:v>
+                  <c:v>5.1348599555E10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.578412346E9</c:v>
+                  <c:v>5.4161399555E10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.101143596E9</c:v>
+                  <c:v>5.7049199555E10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.652124846E9</c:v>
+                  <c:v>6.0011999555E10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.231356096E9</c:v>
+                  <c:v>6.3049799555E10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.838837346E9</c:v>
+                  <c:v>6.6162599555E10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.474568596E9</c:v>
+                  <c:v>6.9350399555E10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.138549846E9</c:v>
+                  <c:v>7.2613199555E10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.830781096E9</c:v>
+                  <c:v>7.5950999555E10</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.551262346E9</c:v>
+                  <c:v>7.9363799555E10</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0299993596E10</c:v>
+                  <c:v>8.2851599555E10</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1076974846E10</c:v>
+                  <c:v>8.6414399555E10</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1882206096E10</c:v>
+                  <c:v>9.0052199555E10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2715687346E10</c:v>
+                  <c:v>9.3764999555E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,11 +1399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137226376"/>
-        <c:axId val="-2137223288"/>
+        <c:axId val="-2124310936"/>
+        <c:axId val="-2086921544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137226376"/>
+        <c:axId val="-2124310936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137223288"/>
+        <c:crossAx val="-2086921544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1408,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137223288"/>
+        <c:axId val="-2086921544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137226376"/>
+        <c:crossAx val="-2124310936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,7 +1443,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -1581,94 +1594,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.3583429E7</c:v>
+                  <c:v>2.76866134766E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4166929E7</c:v>
+                  <c:v>3.61618439766E11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.11750429E8</c:v>
+                  <c:v>4.57670744766E11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.76333929E8</c:v>
+                  <c:v>5.65023049766E11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87917429E8</c:v>
+                  <c:v>6.83675354766E11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.46500929E8</c:v>
+                  <c:v>8.13627659766E11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.152084429E9</c:v>
+                  <c:v>9.54879964766E11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.504667929E9</c:v>
+                  <c:v>1.107432269766E12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.904251429E9</c:v>
+                  <c:v>1.271284574766E12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.350834929E9</c:v>
+                  <c:v>1.446436879766E12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.844418429E9</c:v>
+                  <c:v>1.632889184766E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.385001929E9</c:v>
+                  <c:v>1.830641489766E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.972585429E9</c:v>
+                  <c:v>2.039693794766E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.607168929E9</c:v>
+                  <c:v>2.260046099766E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.288752429E9</c:v>
+                  <c:v>2.491698404766E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.017335929E9</c:v>
+                  <c:v>2.734650709766E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.792919429E9</c:v>
+                  <c:v>2.988903014766E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.615502929E9</c:v>
+                  <c:v>3.254455319766E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.485086429E9</c:v>
+                  <c:v>3.531307624766E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.401669929E9</c:v>
+                  <c:v>3.819459929766E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0365253429E10</c:v>
+                  <c:v>4.118912234766E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1375836929E10</c:v>
+                  <c:v>4.429664539766E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2433420429E10</c:v>
+                  <c:v>4.751716844766E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3538003929E10</c:v>
+                  <c:v>5.085069149766E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4689587429E10</c:v>
+                  <c:v>5.429721454766E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5888170929E10</c:v>
+                  <c:v>5.785673759766E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7133754429E10</c:v>
+                  <c:v>6.152926064766E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8426337929E10</c:v>
+                  <c:v>6.531478369766E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9765921429E10</c:v>
+                  <c:v>6.921330674766E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1152504929E10</c:v>
+                  <c:v>7.322482979766E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,94 +1808,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.4231096E7</c:v>
+                  <c:v>1.92958027072E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6712346E7</c:v>
+                  <c:v>2.52023459572E11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27443596E8</c:v>
+                  <c:v>3.18963892072E11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.26424846E8</c:v>
+                  <c:v>3.93779324572E11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.53656096E8</c:v>
+                  <c:v>4.76469757072E11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.09137346E8</c:v>
+                  <c:v>5.67035189572E11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.92868596E8</c:v>
+                  <c:v>6.65475622072E11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.04849846E8</c:v>
+                  <c:v>7.71791054572E11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.145081096E9</c:v>
+                  <c:v>8.85981487072E11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413562346E9</c:v>
+                  <c:v>1.008046919572E12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.710293596E9</c:v>
+                  <c:v>1.137987352072E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.035274846E9</c:v>
+                  <c:v>1.275802784572E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.388506096E9</c:v>
+                  <c:v>1.421493217072E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.769987346E9</c:v>
+                  <c:v>1.575058649572E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.179718596E9</c:v>
+                  <c:v>1.736499082072E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.617699846E9</c:v>
+                  <c:v>1.905814514572E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.083931096E9</c:v>
+                  <c:v>2.083004947072E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.578412346E9</c:v>
+                  <c:v>2.268070379572E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.101143596E9</c:v>
+                  <c:v>2.461010812072E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.652124846E9</c:v>
+                  <c:v>2.661826244572E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.231356096E9</c:v>
+                  <c:v>2.870516677072E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.838837346E9</c:v>
+                  <c:v>3.087082109572E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.474568596E9</c:v>
+                  <c:v>3.311522542072E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.138549846E9</c:v>
+                  <c:v>3.543837974572E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.830781096E9</c:v>
+                  <c:v>3.784028407072E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.551262346E9</c:v>
+                  <c:v>4.032093839572E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0299993596E10</c:v>
+                  <c:v>4.288034272072E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1076974846E10</c:v>
+                  <c:v>4.551849704572E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1882206096E10</c:v>
+                  <c:v>4.823540137072E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2715687346E10</c:v>
+                  <c:v>5.103105569572E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,11 +1912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137144936"/>
-        <c:axId val="-2137141880"/>
+        <c:axId val="-2090285608"/>
+        <c:axId val="-2095456024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137144936"/>
+        <c:axId val="-2090285608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137141880"/>
+        <c:crossAx val="-2095456024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137141880"/>
+        <c:axId val="-2095456024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1945,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137144936"/>
+        <c:crossAx val="-2090285608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1943,7 +1956,7 @@
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
@@ -2094,94 +2107,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.3583429E7</c:v>
+                  <c:v>3.55214359871E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4166929E7</c:v>
+                  <c:v>4.49566154871E11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.11750429E8</c:v>
+                  <c:v>5.55017949871E11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.76333929E8</c:v>
+                  <c:v>6.71569744871E11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87917429E8</c:v>
+                  <c:v>7.99221539871E11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.46500929E8</c:v>
+                  <c:v>9.37973334871E11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.152084429E9</c:v>
+                  <c:v>1.087825129871E12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.504667929E9</c:v>
+                  <c:v>1.248776924871E12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.904251429E9</c:v>
+                  <c:v>1.420828719871E12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.350834929E9</c:v>
+                  <c:v>1.603980514871E12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.844418429E9</c:v>
+                  <c:v>1.798232309871E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.385001929E9</c:v>
+                  <c:v>2.003584104871E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.972585429E9</c:v>
+                  <c:v>2.220035899871E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.607168929E9</c:v>
+                  <c:v>2.447587694871E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.288752429E9</c:v>
+                  <c:v>2.686239489871E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.017335929E9</c:v>
+                  <c:v>2.935991284871E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.792919429E9</c:v>
+                  <c:v>3.196843079871E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.615502929E9</c:v>
+                  <c:v>3.468794874871E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.485086429E9</c:v>
+                  <c:v>3.751846669871E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.401669929E9</c:v>
+                  <c:v>4.045998464871E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0365253429E10</c:v>
+                  <c:v>4.351250259871E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1375836929E10</c:v>
+                  <c:v>4.667602054871E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2433420429E10</c:v>
+                  <c:v>4.995053849871E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3538003929E10</c:v>
+                  <c:v>5.333605644871E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4689587429E10</c:v>
+                  <c:v>5.683257439871E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5888170929E10</c:v>
+                  <c:v>6.044009234871E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7133754429E10</c:v>
+                  <c:v>6.415861029871E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8426337929E10</c:v>
+                  <c:v>6.798812824871E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9765921429E10</c:v>
+                  <c:v>7.192864619871E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1152504929E10</c:v>
+                  <c:v>7.598016414871E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2308,94 +2321,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.4231096E7</c:v>
+                  <c:v>1.97618699664E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6712346E7</c:v>
+                  <c:v>2.50108537164E11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27443596E8</c:v>
+                  <c:v>3.08773374664E11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.26424846E8</c:v>
+                  <c:v>3.73613212164E11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.53656096E8</c:v>
+                  <c:v>4.44628049664E11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.09137346E8</c:v>
+                  <c:v>5.21817887164E11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.92868596E8</c:v>
+                  <c:v>6.05182724664E11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.04849846E8</c:v>
+                  <c:v>6.94722562164E11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.145081096E9</c:v>
+                  <c:v>7.90437399664E11</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413562346E9</c:v>
+                  <c:v>8.92327237164E11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.710293596E9</c:v>
+                  <c:v>1.000392074664E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.035274846E9</c:v>
+                  <c:v>1.114631912164E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.388506096E9</c:v>
+                  <c:v>1.235046749664E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.769987346E9</c:v>
+                  <c:v>1.361636587164E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.179718596E9</c:v>
+                  <c:v>1.494401424664E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.617699846E9</c:v>
+                  <c:v>1.633341262164E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.083931096E9</c:v>
+                  <c:v>1.778456099664E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.578412346E9</c:v>
+                  <c:v>1.929745937164E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.101143596E9</c:v>
+                  <c:v>2.087210774664E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.652124846E9</c:v>
+                  <c:v>2.250850612164E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.231356096E9</c:v>
+                  <c:v>2.420665449664E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.838837346E9</c:v>
+                  <c:v>2.596655287164E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.474568596E9</c:v>
+                  <c:v>2.778820124664E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.138549846E9</c:v>
+                  <c:v>2.967159962164E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.830781096E9</c:v>
+                  <c:v>3.161674799664E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.551262346E9</c:v>
+                  <c:v>3.362364637164E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0299993596E10</c:v>
+                  <c:v>3.569229474664E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1076974846E10</c:v>
+                  <c:v>3.782269312164E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1882206096E10</c:v>
+                  <c:v>4.001484149664E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2715687346E10</c:v>
+                  <c:v>4.226873987164E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2412,11 +2425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137065288"/>
-        <c:axId val="-2137062216"/>
+        <c:axId val="-2086173464"/>
+        <c:axId val="-2085809160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137065288"/>
+        <c:axId val="-2086173464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137062216"/>
+        <c:crossAx val="-2085809160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2434,7 +2447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137062216"/>
+        <c:axId val="-2085809160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137065288"/>
+        <c:crossAx val="-2086173464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2607,94 +2620,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>2.3583429E7</c:v>
+                  <c:v>9.21223869853E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4166929E7</c:v>
+                  <c:v>1.057525574853E12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.11750429E8</c:v>
+                  <c:v>1.203227279853E12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.76333929E8</c:v>
+                  <c:v>1.358328984853E12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.87917429E8</c:v>
+                  <c:v>1.522830689853E12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.46500929E8</c:v>
+                  <c:v>1.696732394853E12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.152084429E9</c:v>
+                  <c:v>1.880034099853E12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.504667929E9</c:v>
+                  <c:v>2.072735804853E12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.904251429E9</c:v>
+                  <c:v>2.274837509853E12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.350834929E9</c:v>
+                  <c:v>2.486339214853E12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.844418429E9</c:v>
+                  <c:v>2.707240919853E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.385001929E9</c:v>
+                  <c:v>2.937542624853E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.972585429E9</c:v>
+                  <c:v>3.177244329853E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.607168929E9</c:v>
+                  <c:v>3.426346034853E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.288752429E9</c:v>
+                  <c:v>3.684847739853E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.017335929E9</c:v>
+                  <c:v>3.952749444853E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.792919429E9</c:v>
+                  <c:v>4.230051149853E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.615502929E9</c:v>
+                  <c:v>4.516752854853E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.485086429E9</c:v>
+                  <c:v>4.812854559853E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.401669929E9</c:v>
+                  <c:v>5.118356264853E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.0365253429E10</c:v>
+                  <c:v>5.433257969853E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1375836929E10</c:v>
+                  <c:v>5.757559674853E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2433420429E10</c:v>
+                  <c:v>6.091261379853E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3538003929E10</c:v>
+                  <c:v>6.434363084853E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4689587429E10</c:v>
+                  <c:v>6.786864789853E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5888170929E10</c:v>
+                  <c:v>7.148766494853E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7133754429E10</c:v>
+                  <c:v>7.520068199853E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8426337929E10</c:v>
+                  <c:v>7.900769904853E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.9765921429E10</c:v>
+                  <c:v>8.290871609853E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1152504929E10</c:v>
+                  <c:v>8.690373314853E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,94 +2834,94 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>1.4231096E7</c:v>
+                  <c:v>5.34131079671E11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6712346E7</c:v>
+                  <c:v>6.13158299671E11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.27443596E8</c:v>
+                  <c:v>6.97635519671E11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.26424846E8</c:v>
+                  <c:v>7.87562739671E11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.53656096E8</c:v>
+                  <c:v>8.82939959671E11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.09137346E8</c:v>
+                  <c:v>9.83767179671E11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.92868596E8</c:v>
+                  <c:v>1.090044399671E12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.04849846E8</c:v>
+                  <c:v>1.201771619671E12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.145081096E9</c:v>
+                  <c:v>1.318948839671E12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413562346E9</c:v>
+                  <c:v>1.441576059671E12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.710293596E9</c:v>
+                  <c:v>1.569653279671E12</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.035274846E9</c:v>
+                  <c:v>1.703180499671E12</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.388506096E9</c:v>
+                  <c:v>1.842157719671E12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.769987346E9</c:v>
+                  <c:v>1.986584939671E12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.179718596E9</c:v>
+                  <c:v>2.136462159671E12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.617699846E9</c:v>
+                  <c:v>2.291789379671E12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.083931096E9</c:v>
+                  <c:v>2.452566599671E12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.578412346E9</c:v>
+                  <c:v>2.618793819671E12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.101143596E9</c:v>
+                  <c:v>2.790471039671E12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.652124846E9</c:v>
+                  <c:v>2.967598259671E12</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.231356096E9</c:v>
+                  <c:v>3.150175479671E12</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.838837346E9</c:v>
+                  <c:v>3.338202699671E12</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.474568596E9</c:v>
+                  <c:v>3.531679919671E12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.138549846E9</c:v>
+                  <c:v>3.730607139671E12</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.830781096E9</c:v>
+                  <c:v>3.934984359671E12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.551262346E9</c:v>
+                  <c:v>4.144811579671E12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0299993596E10</c:v>
+                  <c:v>4.360088799671E12</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1076974846E10</c:v>
+                  <c:v>4.580816019671E12</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1882206096E10</c:v>
+                  <c:v>4.806993239671E12</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.2715687346E10</c:v>
+                  <c:v>5.038620459671E12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,11 +2938,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137560328"/>
-        <c:axId val="-2137563400"/>
+        <c:axId val="-2095443160"/>
+        <c:axId val="-2090220152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137560328"/>
+        <c:axId val="-2095443160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,7 +2952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137563400"/>
+        <c:crossAx val="-2090220152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +2960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137563400"/>
+        <c:axId val="-2090220152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2958,7 +2971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137560328"/>
+        <c:crossAx val="-2095443160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2985,19 +2998,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3022,17 +3035,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>88906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3055,19 +3068,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3092,17 +3105,17 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3125,19 +3138,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1435100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3479,9 +3492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3502,13 +3515,13 @@
       <c r="C1" s="21"/>
       <c r="D1" s="4"/>
       <c r="E1" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="19" t="s">
@@ -3613,7 +3626,7 @@
     </row>
     <row r="10" spans="1:31" s="36" customFormat="1">
       <c r="A10" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="36">
         <v>500</v>
@@ -3711,7 +3724,7 @@
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1" ht="15">
       <c r="A12" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="41">
         <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
@@ -3961,7 +3974,7 @@
     </row>
     <row r="16" spans="1:31" ht="20">
       <c r="D16" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3980,9 +3993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4023,7 +4036,7 @@
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="19" t="s">
@@ -4132,7 +4145,7 @@
     </row>
     <row r="10" spans="1:31" s="38" customFormat="1">
       <c r="A10" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="38">
         <v>10000</v>
@@ -4232,97 +4245,127 @@
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1" ht="15">
       <c r="A12" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="41">
-        <v>23583429</v>
+        <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>27504399840</v>
       </c>
       <c r="C12" s="29">
-        <v>94166929</v>
+        <f>(C10-1)*(3*C3+C5+C6)+((C10*(C10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>30323369840</v>
       </c>
       <c r="D12" s="29">
-        <v>211750429</v>
+        <f>(D10-1)*(3*C3+C5+C6)+((D10*(D10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>33279839840</v>
       </c>
       <c r="E12" s="29">
-        <v>376333929</v>
+        <f>(E10-1)*(3*C3+C5+C6)+((E10*(E10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>36373809840</v>
       </c>
       <c r="F12" s="29">
-        <v>587917429</v>
+        <f>(F10-1)*(3*C3+C5+C6)+((F10*(F10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>42974249840</v>
       </c>
       <c r="G12" s="29">
-        <v>846500929</v>
+        <f>(G10-1)*(3*C3+C5+C6)+((G10*(G10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>46480719840</v>
       </c>
       <c r="H12" s="29">
-        <v>1152084429</v>
+        <f>(H10-1)*(3*C3+C5+C6)+((H10*(H10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>50124689840</v>
       </c>
       <c r="I12" s="29">
-        <v>1504667929</v>
+        <f>(I10-1)*(3*C3+C5+C6)+((I10*(I10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>53906159840</v>
       </c>
       <c r="J12" s="29">
-        <v>1904251429</v>
+        <f>(J10-1)*(3*C3+C5+C6)+((J10*(J10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>57825129840</v>
       </c>
       <c r="K12" s="29">
-        <v>2350834929</v>
+        <f>(K10-1)*(3*C3+C5+C6)+((K10*(K10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>61881599840</v>
       </c>
       <c r="L12" s="29">
-        <v>2844418429</v>
+        <f>(L10-1)*(3*C3+C5+C6)+((L10*(L10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>66075569840</v>
       </c>
       <c r="M12" s="29">
-        <v>3385001929</v>
+        <f>(M10-1)*(3*C3+C5+C6)+((M10*(M10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>70407039840</v>
       </c>
       <c r="N12" s="29">
-        <v>3972585429</v>
+        <f>(N10-1)*(3*C3+C5+C6)+((N10*(N10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>74876009840</v>
       </c>
       <c r="O12" s="29">
-        <v>4607168929</v>
+        <f>(O10-1)*(3*C3+C5+C6)+((O10*(O10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>79482479840</v>
       </c>
       <c r="P12" s="29">
-        <v>5288752429</v>
+        <f>(P10-1)*(3*C3+C5+C6)+((P10*(P10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>84226449840</v>
       </c>
       <c r="Q12" s="29">
-        <v>6017335929</v>
+        <f>(Q10-1)*(3*C3+C5+C6)+((Q10*(Q10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>89107919840</v>
       </c>
       <c r="R12" s="29">
-        <v>6792919429</v>
+        <f>(R10-1)*(3*C3+C5+C6)+((R10*(R10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>94126889840</v>
       </c>
       <c r="S12" s="29">
-        <v>7615502929</v>
+        <f>(S10-1)*(3*C3+C5+C6)+((S10*(S10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>99283359840</v>
       </c>
       <c r="T12" s="29">
-        <v>8485086429</v>
+        <f>(T10-1)*(3*C3+C5+C6)+((T10*(T10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>104577329840</v>
       </c>
       <c r="U12" s="29">
-        <v>9401669929</v>
+        <f>(U10-1)*(3*C3+C5+C6)+((U10*(U10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>110008799840</v>
       </c>
       <c r="V12" s="29">
-        <v>10365253429</v>
+        <f>(V10-1)*(3*C3+C5+C6)+((V10*(V10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>115577769840</v>
       </c>
       <c r="W12" s="29">
-        <v>11375836929</v>
+        <f>(W10-1)*(3*C3+C5+C6)+((W10*(W10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>121284239840</v>
       </c>
       <c r="X12" s="29">
-        <v>12433420429</v>
+        <f>(X10-1)*(3*C3+C5+C6)+((X10*(X10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>127128209840</v>
       </c>
       <c r="Y12" s="29">
-        <v>13538003929</v>
+        <f>(Y10-1)*(3*C3+C5+C6)+((Y10*(Y10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>133109679840</v>
       </c>
       <c r="Z12" s="29">
-        <v>14689587429</v>
+        <f>(Z10-1)*(3*C3+C5+C6)+((Z10*(Z10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>139228649840</v>
       </c>
       <c r="AA12" s="29">
-        <v>15888170929</v>
+        <f>(AA10-1)*(3*C3+C5+C6)+((AA10*(AA10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>145485119840</v>
       </c>
       <c r="AB12" s="29">
-        <v>17133754429</v>
+        <f>(AB10-1)*(3*C3+C5+C6)+((AB10*(AB10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>151879089840</v>
       </c>
       <c r="AC12" s="29">
-        <v>18426337929</v>
+        <f>(AC10-1)*(3*C3+C5+C6)+((AC10*(AC10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>158410559840</v>
       </c>
       <c r="AD12" s="29">
-        <v>19765921429</v>
+        <f>(AD10-1)*(3*C3+C5+C6)+((AD10*(AD10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>165079529840</v>
       </c>
       <c r="AE12" s="29">
-        <v>21152504929</v>
+        <f>(AE10-1)*(3*C3+C5+C6)+((AE10*(AE10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>171885999840</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -4334,94 +4377,124 @@
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <v>14231096</v>
+        <f>(B10-1)*(5*H3+4*H4+H5+3*H7)+(B10*(B10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>15005999555</v>
       </c>
       <c r="C14" s="29">
-        <v>56712346</v>
+        <f>(C10-1)*(5*H3+4*H4+H5+3*H7)+(C10*(C10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>16543799555</v>
       </c>
       <c r="D14" s="29">
-        <v>127443596</v>
+        <f>(D10-1)*(5*H3+4*H4+H5+3*H7)+(D10*(D10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>18156599555</v>
       </c>
       <c r="E14" s="29">
-        <v>226424846</v>
+        <f>(E10-1)*(5*H3+4*H4+H5+3*H7)+(E10*(E10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>19844399555</v>
       </c>
       <c r="F14" s="29">
-        <v>353656096</v>
+        <f>(F10-1)*(5*H3+4*H4+H5+3*H7)+(F10*(F10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>23444999555</v>
       </c>
       <c r="G14" s="29">
-        <v>509137346</v>
+        <f>(G10-1)*(5*H3+4*H4+H5+3*H7)+(G10*(G10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>25357799555</v>
       </c>
       <c r="H14" s="29">
-        <v>692868596</v>
+        <f>(H10-1)*(5*H3+4*H4+H5+3*H7)+(H10*(H10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>27345599555</v>
       </c>
       <c r="I14" s="29">
-        <v>904849846</v>
+        <f>(I10-1)*(5*H3+4*H4+H5+3*H7)+(I10*(I10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>29408399555</v>
       </c>
       <c r="J14" s="29">
-        <v>1145081096</v>
+        <f>(J10-1)*(5*H3+4*H4+H5+3*H7)+(J10*(J10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>31546199555</v>
       </c>
       <c r="K14" s="29">
-        <v>1413562346</v>
+        <f>(K10-1)*(5*H3+4*H4+H5+3*H7)+(K10*(K10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>33758999555</v>
       </c>
       <c r="L14" s="29">
-        <v>1710293596</v>
+        <f>(L10-1)*(5*H3+4*H4+H5+3*H7)+(L10*(L10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>36046799555</v>
       </c>
       <c r="M14" s="29">
-        <v>2035274846</v>
+        <f>(M10-1)*(5*H3+4*H4+H5+3*H7)+(M10*(M10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>38409599555</v>
       </c>
       <c r="N14" s="29">
-        <v>2388506096</v>
+        <f>(N10-1)*(5*H3+4*H4+H5+3*H7)+(N10*(N10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>40847399555</v>
       </c>
       <c r="O14" s="29">
-        <v>2769987346</v>
+        <f>(O10-1)*(5*H3+4*H4+H5+3*H7)+(O10*(O10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>43360199555</v>
       </c>
       <c r="P14" s="29">
-        <v>3179718596</v>
+        <f>(P10-1)*(5*H3+4*H4+H5+3*H7)+(P10*(P10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>45947999555</v>
       </c>
       <c r="Q14" s="29">
-        <v>3617699846</v>
+        <f>(Q10-1)*(5*H3+4*H4+H5+3*H7)+(Q10*(Q10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>48610799555</v>
       </c>
       <c r="R14" s="29">
-        <v>4083931096</v>
+        <f>(R10-1)*(5*H3+4*H4+H5+3*H7)+(R10*(R10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>51348599555</v>
       </c>
       <c r="S14" s="29">
-        <v>4578412346</v>
+        <f>(S10-1)*(5*H3+4*H4+H5+3*H7)+(S10*(S10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>54161399555</v>
       </c>
       <c r="T14" s="29">
-        <v>5101143596</v>
+        <f>(T10-1)*(5*H3+4*H4+H5+3*H7)+(T10*(T10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>57049199555</v>
       </c>
       <c r="U14" s="29">
-        <v>5652124846</v>
+        <f>(U10-1)*(5*H3+4*H4+H5+3*H7)+(U10*(U10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>60011999555</v>
       </c>
       <c r="V14" s="29">
-        <v>6231356096</v>
+        <f>(V10-1)*(5*H3+4*H4+H5+3*H7)+(V10*(V10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>63049799555</v>
       </c>
       <c r="W14" s="29">
-        <v>6838837346</v>
+        <f>(W10-1)*(5*H3+4*H4+H5+3*H7)+(W10*(W10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>66162599555</v>
       </c>
       <c r="X14" s="29">
-        <v>7474568596</v>
+        <f>(X10-1)*(5*H3+4*H4+H5+3*H7)+(X10*(X10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>69350399555</v>
       </c>
       <c r="Y14" s="29">
-        <v>8138549846</v>
+        <f>(Y10-1)*(5*H3+4*H4+H5+3*H7)+(Y10*(Y10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>72613199555</v>
       </c>
       <c r="Z14" s="29">
-        <v>8830781096</v>
+        <f>(Z10-1)*(5*H3+4*H4+H5+3*H7)+(Z10*(Z10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>75950999555</v>
       </c>
       <c r="AA14" s="29">
-        <v>9551262346</v>
+        <f>(AA10-1)*(5*H3+4*H4+H5+3*H7)+(AA10*(AA10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>79363799555</v>
       </c>
       <c r="AB14" s="29">
-        <v>10299993596</v>
+        <f>(AB10-1)*(5*H3+4*H4+H5+3*H7)+(AB10*(AB10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>82851599555</v>
       </c>
       <c r="AC14" s="29">
-        <v>11076974846</v>
+        <f>(AC10-1)*(5*H3+4*H4+H5+3*H7)+(AC10*(AC10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>86414399555</v>
       </c>
       <c r="AD14" s="29">
-        <v>11882206096</v>
+        <f>(AD10-1)*(5*H3+4*H4+H5+3*H7)+(AD10*(AD10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>90052199555</v>
       </c>
       <c r="AE14" s="29">
-        <v>12715687346</v>
+        <f>(AE10-1)*(5*H3+4*H4+H5+3*H7)+(AE10*(AE10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>93764999555</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -4430,7 +4503,7 @@
     </row>
     <row r="17" spans="4:4" ht="20">
       <c r="D17" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4449,9 +4522,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD14"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4495,7 +4568,7 @@
     </row>
     <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="24" t="s">
@@ -4594,11 +4667,11 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17">
@@ -4611,9 +4684,13 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:31" ht="17">
       <c r="A9" s="12"/>
@@ -4627,7 +4704,7 @@
     </row>
     <row r="10" spans="1:31" s="36" customFormat="1" ht="17">
       <c r="A10" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="36">
         <v>35000</v>
@@ -4732,97 +4809,127 @@
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1">
       <c r="A12" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="41">
-        <v>23583429</v>
+        <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>276866134766</v>
       </c>
       <c r="C12" s="29">
-        <v>94166929</v>
+        <f>(C10-1)*(3*C3+C5+C6)+((C10*(C10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>361618439766</v>
       </c>
       <c r="D12" s="29">
-        <v>211750429</v>
+        <f>(D10-1)*(3*C3+C5+C6)+((D10*(D10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>457670744766</v>
       </c>
       <c r="E12" s="29">
-        <v>376333929</v>
+        <f>(E10-1)*(3*C3+C5+C6)+((E10*(E10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>565023049766</v>
       </c>
       <c r="F12" s="29">
-        <v>587917429</v>
+        <f>(F10-1)*(3*C3+C5+C6)+((F10*(F10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>683675354766</v>
       </c>
       <c r="G12" s="29">
-        <v>846500929</v>
+        <f>(G10-1)*(3*C3+C5+C6)+((G10*(G10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>813627659766</v>
       </c>
       <c r="H12" s="29">
-        <v>1152084429</v>
+        <f>(H10-1)*(3*C3+C5+C6)+((H10*(H10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>954879964766</v>
       </c>
       <c r="I12" s="29">
-        <v>1504667929</v>
+        <f>(I10-1)*(3*C3+C5+C6)+((I10*(I10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1107432269766</v>
       </c>
       <c r="J12" s="29">
-        <v>1904251429</v>
+        <f>(J10-1)*(3*C3+C5+C6)+((J10*(J10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1271284574766</v>
       </c>
       <c r="K12" s="29">
-        <v>2350834929</v>
+        <f>(K10-1)*(3*C3+C5+C6)+((K10*(K10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1446436879766</v>
       </c>
       <c r="L12" s="29">
-        <v>2844418429</v>
+        <f>(L10-1)*(3*C3+C5+C6)+((L10*(L10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1632889184766</v>
       </c>
       <c r="M12" s="29">
-        <v>3385001929</v>
+        <f>(M10-1)*(3*C3+C5+C6)+((M10*(M10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1830641489766</v>
       </c>
       <c r="N12" s="29">
-        <v>3972585429</v>
+        <f>(N10-1)*(3*C3+C5+C6)+((N10*(N10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2039693794766</v>
       </c>
       <c r="O12" s="29">
-        <v>4607168929</v>
+        <f>(O10-1)*(3*C3+C5+C6)+((O10*(O10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2260046099766</v>
       </c>
       <c r="P12" s="29">
-        <v>5288752429</v>
+        <f>(P10-1)*(3*C3+C5+C6)+((P10*(P10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2491698404766</v>
       </c>
       <c r="Q12" s="29">
-        <v>6017335929</v>
+        <f>(Q10-1)*(3*C3+C5+C6)+((Q10*(Q10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2734650709766</v>
       </c>
       <c r="R12" s="29">
-        <v>6792919429</v>
+        <f>(R10-1)*(3*C3+C5+C6)+((R10*(R10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2988903014766</v>
       </c>
       <c r="S12" s="29">
-        <v>7615502929</v>
+        <f>(S10-1)*(3*C3+C5+C6)+((S10*(S10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3254455319766</v>
       </c>
       <c r="T12" s="29">
-        <v>8485086429</v>
+        <f>(T10-1)*(3*C3+C5+C6)+((T10*(T10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3531307624766</v>
       </c>
       <c r="U12" s="29">
-        <v>9401669929</v>
+        <f>(U10-1)*(3*C3+C5+C6)+((U10*(U10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3819459929766</v>
       </c>
       <c r="V12" s="29">
-        <v>10365253429</v>
+        <f>(V10-1)*(3*C3+C5+C6)+((V10*(V10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4118912234766</v>
       </c>
       <c r="W12" s="29">
-        <v>11375836929</v>
+        <f>(W10-1)*(3*C3+C5+C6)+((W10*(W10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4429664539766</v>
       </c>
       <c r="X12" s="29">
-        <v>12433420429</v>
+        <f>(X10-1)*(3*C3+C5+C6)+((X10*(X10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4751716844766</v>
       </c>
       <c r="Y12" s="29">
-        <v>13538003929</v>
+        <f>(Y10-1)*(3*C3+C5+C6)+((Y10*(Y10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5085069149766</v>
       </c>
       <c r="Z12" s="29">
-        <v>14689587429</v>
+        <f>(Z10-1)*(3*C3+C5+C6)+((Z10*(Z10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5429721454766</v>
       </c>
       <c r="AA12" s="29">
-        <v>15888170929</v>
+        <f>(AA10-1)*(3*C3+C5+C6)+((AA10*(AA10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5785673759766</v>
       </c>
       <c r="AB12" s="29">
-        <v>17133754429</v>
+        <f>(AB10-1)*(3*C3+C5+C6)+((AB10*(AB10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6152926064766</v>
       </c>
       <c r="AC12" s="29">
-        <v>18426337929</v>
+        <f>(AC10-1)*(3*C3+C5+C6)+((AC10*(AC10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6531478369766</v>
       </c>
       <c r="AD12" s="29">
-        <v>19765921429</v>
+        <f>(AD10-1)*(3*C3+C5+C6)+((AD10*(AD10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6921330674766</v>
       </c>
       <c r="AE12" s="29">
-        <v>21152504929</v>
+        <f>(AE10-1)*(3*C3+C5+C6)+((AE10*(AE10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7322482979766</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17">
@@ -4834,94 +4941,124 @@
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <v>14231096</v>
+        <f>(B10-1)*(5*H3+4*H4+H5+3*H7)+(B10*(B10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>192958027072</v>
       </c>
       <c r="C14" s="29">
-        <v>56712346</v>
+        <f>(C10-1)*(5*H3+4*H4+H5+3*H7)+(C10*(C10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>252023459572</v>
       </c>
       <c r="D14" s="29">
-        <v>127443596</v>
+        <f>(D10-1)*(5*H3+4*H4+H5+3*H7)+(D10*(D10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>318963892072</v>
       </c>
       <c r="E14" s="29">
-        <v>226424846</v>
+        <f>(E10-1)*(5*H3+4*H4+H5+3*H7)+(E10*(E10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>393779324572</v>
       </c>
       <c r="F14" s="29">
-        <v>353656096</v>
+        <f>(F10-1)*(5*H3+4*H4+H5+3*H7)+(F10*(F10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>476469757072</v>
       </c>
       <c r="G14" s="29">
-        <v>509137346</v>
+        <f>(G10-1)*(5*H3+4*H4+H5+3*H7)+(G10*(G10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>567035189572</v>
       </c>
       <c r="H14" s="29">
-        <v>692868596</v>
+        <f>(H10-1)*(5*H3+4*H4+H5+3*H7)+(H10*(H10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>665475622072</v>
       </c>
       <c r="I14" s="29">
-        <v>904849846</v>
+        <f>(I10-1)*(5*H3+4*H4+H5+3*H7)+(I10*(I10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>771791054572</v>
       </c>
       <c r="J14" s="29">
-        <v>1145081096</v>
+        <f>(J10-1)*(5*H3+4*H4+H5+3*H7)+(J10*(J10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>885981487072</v>
       </c>
       <c r="K14" s="29">
-        <v>1413562346</v>
+        <f>(K10-1)*(5*H3+4*H4+H5+3*H7)+(K10*(K10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1008046919572</v>
       </c>
       <c r="L14" s="29">
-        <v>1710293596</v>
+        <f>(L10-1)*(5*H3+4*H4+H5+3*H7)+(L10*(L10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1137987352072</v>
       </c>
       <c r="M14" s="29">
-        <v>2035274846</v>
+        <f>(M10-1)*(5*H3+4*H4+H5+3*H7)+(M10*(M10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1275802784572</v>
       </c>
       <c r="N14" s="29">
-        <v>2388506096</v>
+        <f>(N10-1)*(5*H3+4*H4+H5+3*H7)+(N10*(N10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1421493217072</v>
       </c>
       <c r="O14" s="29">
-        <v>2769987346</v>
+        <f>(O10-1)*(5*H3+4*H4+H5+3*H7)+(O10*(O10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1575058649572</v>
       </c>
       <c r="P14" s="29">
-        <v>3179718596</v>
+        <f>(P10-1)*(5*H3+4*H4+H5+3*H7)+(P10*(P10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1736499082072</v>
       </c>
       <c r="Q14" s="29">
-        <v>3617699846</v>
+        <f>(Q10-1)*(5*H3+4*H4+H5+3*H7)+(Q10*(Q10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1905814514572</v>
       </c>
       <c r="R14" s="29">
-        <v>4083931096</v>
+        <f>(R10-1)*(5*H3+4*H4+H5+3*H7)+(R10*(R10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2083004947072</v>
       </c>
       <c r="S14" s="29">
-        <v>4578412346</v>
+        <f>(S10-1)*(5*H3+4*H4+H5+3*H7)+(S10*(S10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2268070379572</v>
       </c>
       <c r="T14" s="29">
-        <v>5101143596</v>
+        <f>(T10-1)*(5*H3+4*H4+H5+3*H7)+(T10*(T10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2461010812072</v>
       </c>
       <c r="U14" s="29">
-        <v>5652124846</v>
+        <f>(U10-1)*(5*H3+4*H4+H5+3*H7)+(U10*(U10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2661826244572</v>
       </c>
       <c r="V14" s="29">
-        <v>6231356096</v>
+        <f>(V10-1)*(5*H3+4*H4+H5+3*H7)+(V10*(V10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2870516677072</v>
       </c>
       <c r="W14" s="29">
-        <v>6838837346</v>
+        <f>(W10-1)*(5*H3+4*H4+H5+3*H7)+(W10*(W10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3087082109572</v>
       </c>
       <c r="X14" s="29">
-        <v>7474568596</v>
+        <f>(X10-1)*(5*H3+4*H4+H5+3*H7)+(X10*(X10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3311522542072</v>
       </c>
       <c r="Y14" s="29">
-        <v>8138549846</v>
+        <f>(Y10-1)*(5*H3+4*H4+H5+3*H7)+(Y10*(Y10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3543837974572</v>
       </c>
       <c r="Z14" s="29">
-        <v>8830781096</v>
+        <f>(Z10-1)*(5*H3+4*H4+H5+3*H7)+(Z10*(Z10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3784028407072</v>
       </c>
       <c r="AA14" s="29">
-        <v>9551262346</v>
+        <f>(AA10-1)*(5*H3+4*H4+H5+3*H7)+(AA10*(AA10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4032093839572</v>
       </c>
       <c r="AB14" s="29">
-        <v>10299993596</v>
+        <f>(AB10-1)*(5*H3+4*H4+H5+3*H7)+(AB10*(AB10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4288034272072</v>
       </c>
       <c r="AC14" s="29">
-        <v>11076974846</v>
+        <f>(AC10-1)*(5*H3+4*H4+H5+3*H7)+(AC10*(AC10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4551849704572</v>
       </c>
       <c r="AD14" s="29">
-        <v>11882206096</v>
+        <f>(AD10-1)*(5*H3+4*H4+H5+3*H7)+(AD10*(AD10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4823540137072</v>
       </c>
       <c r="AE14" s="29">
-        <v>12715687346</v>
+        <f>(AE10-1)*(5*H3+4*H4+H5+3*H7)+(AE10*(AE10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>5103105569572</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="17">
@@ -4936,7 +5073,7 @@
     </row>
     <row r="16" spans="1:31" ht="18">
       <c r="D16" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4954,9 +5091,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD14"/>
+    <sheetView showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5004,7 +5141,7 @@
     </row>
     <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
@@ -5103,11 +5240,11 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="27">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17">
@@ -5120,9 +5257,13 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="27"/>
+      <c r="H8" s="27">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="12"/>
@@ -5136,7 +5277,7 @@
     </row>
     <row r="10" spans="1:31" s="38" customFormat="1" ht="17">
       <c r="A10" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="38">
         <v>40000</v>
@@ -5241,97 +5382,127 @@
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1">
       <c r="A12" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="41">
-        <v>23583429</v>
+        <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>355214359871</v>
       </c>
       <c r="C12" s="29">
-        <v>94166929</v>
+        <f>(C10-1)*(3*C3+C5+C6)+((C10*(C10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>449566154871</v>
       </c>
       <c r="D12" s="29">
-        <v>211750429</v>
+        <f>(D10-1)*(3*C3+C5+C6)+((D10*(D10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>555017949871</v>
       </c>
       <c r="E12" s="29">
-        <v>376333929</v>
+        <f>(E10-1)*(3*C3+C5+C6)+((E10*(E10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>671569744871</v>
       </c>
       <c r="F12" s="29">
-        <v>587917429</v>
+        <f>(F10-1)*(3*C3+C5+C6)+((F10*(F10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>799221539871</v>
       </c>
       <c r="G12" s="29">
-        <v>846500929</v>
+        <f>(G10-1)*(3*C3+C5+C6)+((G10*(G10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>937973334871</v>
       </c>
       <c r="H12" s="29">
-        <v>1152084429</v>
+        <f>(H10-1)*(3*C3+C5+C6)+((H10*(H10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1087825129871</v>
       </c>
       <c r="I12" s="29">
-        <v>1504667929</v>
+        <f>(I10-1)*(3*C3+C5+C6)+((I10*(I10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1248776924871</v>
       </c>
       <c r="J12" s="29">
-        <v>1904251429</v>
+        <f>(J10-1)*(3*C3+C5+C6)+((J10*(J10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1420828719871</v>
       </c>
       <c r="K12" s="29">
-        <v>2350834929</v>
+        <f>(K10-1)*(3*C3+C5+C6)+((K10*(K10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1603980514871</v>
       </c>
       <c r="L12" s="29">
-        <v>2844418429</v>
+        <f>(L10-1)*(3*C3+C5+C6)+((L10*(L10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1798232309871</v>
       </c>
       <c r="M12" s="29">
-        <v>3385001929</v>
+        <f>(M10-1)*(3*C3+C5+C6)+((M10*(M10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2003584104871</v>
       </c>
       <c r="N12" s="29">
-        <v>3972585429</v>
+        <f>(N10-1)*(3*C3+C5+C6)+((N10*(N10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2220035899871</v>
       </c>
       <c r="O12" s="29">
-        <v>4607168929</v>
+        <f>(O10-1)*(3*C3+C5+C6)+((O10*(O10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2447587694871</v>
       </c>
       <c r="P12" s="29">
-        <v>5288752429</v>
+        <f>(P10-1)*(3*C3+C5+C6)+((P10*(P10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2686239489871</v>
       </c>
       <c r="Q12" s="29">
-        <v>6017335929</v>
+        <f>(Q10-1)*(3*C3+C5+C6)+((Q10*(Q10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2935991284871</v>
       </c>
       <c r="R12" s="29">
-        <v>6792919429</v>
+        <f>(R10-1)*(3*C3+C5+C6)+((R10*(R10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3196843079871</v>
       </c>
       <c r="S12" s="29">
-        <v>7615502929</v>
+        <f>(S10-1)*(3*C3+C5+C6)+((S10*(S10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3468794874871</v>
       </c>
       <c r="T12" s="29">
-        <v>8485086429</v>
+        <f>(T10-1)*(3*C3+C5+C6)+((T10*(T10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3751846669871</v>
       </c>
       <c r="U12" s="29">
-        <v>9401669929</v>
+        <f>(U10-1)*(3*C3+C5+C6)+((U10*(U10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4045998464871</v>
       </c>
       <c r="V12" s="29">
-        <v>10365253429</v>
+        <f>(V10-1)*(3*C3+C5+C6)+((V10*(V10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4351250259871</v>
       </c>
       <c r="W12" s="29">
-        <v>11375836929</v>
+        <f>(W10-1)*(3*C3+C5+C6)+((W10*(W10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4667602054871</v>
       </c>
       <c r="X12" s="29">
-        <v>12433420429</v>
+        <f>(X10-1)*(3*C3+C5+C6)+((X10*(X10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4995053849871</v>
       </c>
       <c r="Y12" s="29">
-        <v>13538003929</v>
+        <f>(Y10-1)*(3*C3+C5+C6)+((Y10*(Y10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5333605644871</v>
       </c>
       <c r="Z12" s="29">
-        <v>14689587429</v>
+        <f>(Z10-1)*(3*C3+C5+C6)+((Z10*(Z10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5683257439871</v>
       </c>
       <c r="AA12" s="29">
-        <v>15888170929</v>
+        <f>(AA10-1)*(3*C3+C5+C6)+((AA10*(AA10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6044009234871</v>
       </c>
       <c r="AB12" s="29">
-        <v>17133754429</v>
+        <f>(AB10-1)*(3*C3+C5+C6)+((AB10*(AB10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6415861029871</v>
       </c>
       <c r="AC12" s="29">
-        <v>18426337929</v>
+        <f>(AC10-1)*(3*C3+C5+C6)+((AC10*(AC10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6798812824871</v>
       </c>
       <c r="AD12" s="29">
-        <v>19765921429</v>
+        <f>(AD10-1)*(3*C3+C5+C6)+((AD10*(AD10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7192864619871</v>
       </c>
       <c r="AE12" s="29">
-        <v>21152504929</v>
+        <f>(AE10-1)*(3*C3+C5+C6)+((AE10*(AE10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7598016414871</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17">
@@ -5343,94 +5514,124 @@
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <v>14231096</v>
+        <f>(B10-1)*(5*H3+4*H4+H5+3*H7)+(B10*(B10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>197618699664</v>
       </c>
       <c r="C14" s="29">
-        <v>56712346</v>
+        <f>(C10-1)*(5*H3+4*H4+H5+3*H7)+(C10*(C10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>250108537164</v>
       </c>
       <c r="D14" s="29">
-        <v>127443596</v>
+        <f>(D10-1)*(5*H3+4*H4+H5+3*H7)+(D10*(D10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>308773374664</v>
       </c>
       <c r="E14" s="29">
-        <v>226424846</v>
+        <f>(E10-1)*(5*H3+4*H4+H5+3*H7)+(E10*(E10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>373613212164</v>
       </c>
       <c r="F14" s="29">
-        <v>353656096</v>
+        <f>(F10-1)*(5*H3+4*H4+H5+3*H7)+(F10*(F10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>444628049664</v>
       </c>
       <c r="G14" s="29">
-        <v>509137346</v>
+        <f>(G10-1)*(5*H3+4*H4+H5+3*H7)+(G10*(G10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>521817887164</v>
       </c>
       <c r="H14" s="29">
-        <v>692868596</v>
+        <f>(H10-1)*(5*H3+4*H4+H5+3*H7)+(H10*(H10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>605182724664</v>
       </c>
       <c r="I14" s="29">
-        <v>904849846</v>
+        <f>(I10-1)*(5*H3+4*H4+H5+3*H7)+(I10*(I10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>694722562164</v>
       </c>
       <c r="J14" s="29">
-        <v>1145081096</v>
+        <f>(J10-1)*(5*H3+4*H4+H5+3*H7)+(J10*(J10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>790437399664</v>
       </c>
       <c r="K14" s="29">
-        <v>1413562346</v>
+        <f>(K10-1)*(5*H3+4*H4+H5+3*H7)+(K10*(K10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>892327237164</v>
       </c>
       <c r="L14" s="29">
-        <v>1710293596</v>
+        <f>(L10-1)*(5*H3+4*H4+H5+3*H7)+(L10*(L10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1000392074664</v>
       </c>
       <c r="M14" s="29">
-        <v>2035274846</v>
+        <f>(M10-1)*(5*H3+4*H4+H5+3*H7)+(M10*(M10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1114631912164</v>
       </c>
       <c r="N14" s="29">
-        <v>2388506096</v>
+        <f>(N10-1)*(5*H3+4*H4+H5+3*H7)+(N10*(N10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1235046749664</v>
       </c>
       <c r="O14" s="29">
-        <v>2769987346</v>
+        <f>(O10-1)*(5*H3+4*H4+H5+3*H7)+(O10*(O10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1361636587164</v>
       </c>
       <c r="P14" s="29">
-        <v>3179718596</v>
+        <f>(P10-1)*(5*H3+4*H4+H5+3*H7)+(P10*(P10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1494401424664</v>
       </c>
       <c r="Q14" s="29">
-        <v>3617699846</v>
+        <f>(Q10-1)*(5*H3+4*H4+H5+3*H7)+(Q10*(Q10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1633341262164</v>
       </c>
       <c r="R14" s="29">
-        <v>4083931096</v>
+        <f>(R10-1)*(5*H3+4*H4+H5+3*H7)+(R10*(R10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1778456099664</v>
       </c>
       <c r="S14" s="29">
-        <v>4578412346</v>
+        <f>(S10-1)*(5*H3+4*H4+H5+3*H7)+(S10*(S10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1929745937164</v>
       </c>
       <c r="T14" s="29">
-        <v>5101143596</v>
+        <f>(T10-1)*(5*H3+4*H4+H5+3*H7)+(T10*(T10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2087210774664</v>
       </c>
       <c r="U14" s="29">
-        <v>5652124846</v>
+        <f>(U10-1)*(5*H3+4*H4+H5+3*H7)+(U10*(U10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2250850612164</v>
       </c>
       <c r="V14" s="29">
-        <v>6231356096</v>
+        <f>(V10-1)*(5*H3+4*H4+H5+3*H7)+(V10*(V10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2420665449664</v>
       </c>
       <c r="W14" s="29">
-        <v>6838837346</v>
+        <f>(W10-1)*(5*H3+4*H4+H5+3*H7)+(W10*(W10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2596655287164</v>
       </c>
       <c r="X14" s="29">
-        <v>7474568596</v>
+        <f>(X10-1)*(5*H3+4*H4+H5+3*H7)+(X10*(X10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2778820124664</v>
       </c>
       <c r="Y14" s="29">
-        <v>8138549846</v>
+        <f>(Y10-1)*(5*H3+4*H4+H5+3*H7)+(Y10*(Y10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2967159962164</v>
       </c>
       <c r="Z14" s="29">
-        <v>8830781096</v>
+        <f>(Z10-1)*(5*H3+4*H4+H5+3*H7)+(Z10*(Z10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3161674799664</v>
       </c>
       <c r="AA14" s="29">
-        <v>9551262346</v>
+        <f>(AA10-1)*(5*H3+4*H4+H5+3*H7)+(AA10*(AA10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3362364637164</v>
       </c>
       <c r="AB14" s="29">
-        <v>10299993596</v>
+        <f>(AB10-1)*(5*H3+4*H4+H5+3*H7)+(AB10*(AB10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3569229474664</v>
       </c>
       <c r="AC14" s="29">
-        <v>11076974846</v>
+        <f>(AC10-1)*(5*H3+4*H4+H5+3*H7)+(AC10*(AC10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3782269312164</v>
       </c>
       <c r="AD14" s="29">
-        <v>11882206096</v>
+        <f>(AD10-1)*(5*H3+4*H4+H5+3*H7)+(AD10*(AD10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4001484149664</v>
       </c>
       <c r="AE14" s="29">
-        <v>12715687346</v>
+        <f>(AE10-1)*(5*H3+4*H4+H5+3*H7)+(AE10*(AE10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4226873987164</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5445,7 +5646,7 @@
     </row>
     <row r="16" spans="1:31" ht="18">
       <c r="D16" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -5465,8 +5666,8 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5510,7 +5711,7 @@
     </row>
     <row r="2" spans="1:31" ht="17">
       <c r="A2" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
@@ -5609,11 +5810,11 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="17">
@@ -5626,9 +5827,13 @@
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="G8" s="12"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="12"/>
@@ -5642,7 +5847,7 @@
     </row>
     <row r="10" spans="1:31" s="40" customFormat="1" ht="17">
       <c r="A10" s="39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="40">
         <v>70000</v>
@@ -5747,97 +5952,127 @@
     </row>
     <row r="12" spans="1:31" s="29" customFormat="1">
       <c r="A12" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="41">
-        <v>23583429</v>
+        <f>(B10-1)*(3*C3+C5+C6)+((B10*(B10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>921223869853</v>
       </c>
       <c r="C12" s="29">
-        <v>94166929</v>
+        <f>(C10-1)*(3*C3+C5+C6)+((C10*(C10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1057525574853</v>
       </c>
       <c r="D12" s="29">
-        <v>211750429</v>
+        <f>(D10-1)*(3*C3+C5+C6)+((D10*(D10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1203227279853</v>
       </c>
       <c r="E12" s="29">
-        <v>376333929</v>
+        <f>(E10-1)*(3*C3+C5+C6)+((E10*(E10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1358328984853</v>
       </c>
       <c r="F12" s="29">
-        <v>587917429</v>
+        <f>(F10-1)*(3*C3+C5+C6)+((F10*(F10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1522830689853</v>
       </c>
       <c r="G12" s="29">
-        <v>846500929</v>
+        <f>(G10-1)*(3*C3+C5+C6)+((G10*(G10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1696732394853</v>
       </c>
       <c r="H12" s="29">
-        <v>1152084429</v>
+        <f>(H10-1)*(3*C3+C5+C6)+((H10*(H10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>1880034099853</v>
       </c>
       <c r="I12" s="29">
-        <v>1504667929</v>
+        <f>(I10-1)*(3*C3+C5+C6)+((I10*(I10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2072735804853</v>
       </c>
       <c r="J12" s="29">
-        <v>1904251429</v>
+        <f>(J10-1)*(3*C3+C5+C6)+((J10*(J10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2274837509853</v>
       </c>
       <c r="K12" s="29">
-        <v>2350834929</v>
+        <f>(K10-1)*(3*C3+C5+C6)+((K10*(K10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2486339214853</v>
       </c>
       <c r="L12" s="29">
-        <v>2844418429</v>
+        <f>(L10-1)*(3*C3+C5+C6)+((L10*(L10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2707240919853</v>
       </c>
       <c r="M12" s="29">
-        <v>3385001929</v>
+        <f>(M10-1)*(3*C3+C5+C6)+((M10*(M10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>2937542624853</v>
       </c>
       <c r="N12" s="29">
-        <v>3972585429</v>
+        <f>(N10-1)*(3*C3+C5+C6)+((N10*(N10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3177244329853</v>
       </c>
       <c r="O12" s="29">
-        <v>4607168929</v>
+        <f>(O10-1)*(3*C3+C5+C6)+((O10*(O10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3426346034853</v>
       </c>
       <c r="P12" s="29">
-        <v>5288752429</v>
+        <f>(P10-1)*(3*C3+C5+C6)+((P10*(P10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3684847739853</v>
       </c>
       <c r="Q12" s="29">
-        <v>6017335929</v>
+        <f>(Q10-1)*(3*C3+C5+C6)+((Q10*(Q10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>3952749444853</v>
       </c>
       <c r="R12" s="29">
-        <v>6792919429</v>
+        <f>(R10-1)*(3*C3+C5+C6)+((R10*(R10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4230051149853</v>
       </c>
       <c r="S12" s="29">
-        <v>7615502929</v>
+        <f>(S10-1)*(3*C3+C5+C6)+((S10*(S10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4516752854853</v>
       </c>
       <c r="T12" s="29">
-        <v>8485086429</v>
+        <f>(T10-1)*(3*C3+C5+C6)+((T10*(T10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>4812854559853</v>
       </c>
       <c r="U12" s="29">
-        <v>9401669929</v>
+        <f>(U10-1)*(3*C3+C5+C6)+((U10*(U10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5118356264853</v>
       </c>
       <c r="V12" s="29">
-        <v>10365253429</v>
+        <f>(V10-1)*(3*C3+C5+C6)+((V10*(V10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5433257969853</v>
       </c>
       <c r="W12" s="29">
-        <v>11375836929</v>
+        <f>(W10-1)*(3*C3+C5+C6)+((W10*(W10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>5757559674853</v>
       </c>
       <c r="X12" s="29">
-        <v>12433420429</v>
+        <f>(X10-1)*(3*C3+C5+C6)+((X10*(X10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6091261379853</v>
       </c>
       <c r="Y12" s="29">
-        <v>13538003929</v>
+        <f>(Y10-1)*(3*C3+C5+C6)+((Y10*(Y10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6434363084853</v>
       </c>
       <c r="Z12" s="29">
-        <v>14689587429</v>
+        <f>(Z10-1)*(3*C3+C5+C6)+((Z10*(Z10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>6786864789853</v>
       </c>
       <c r="AA12" s="29">
-        <v>15888170929</v>
+        <f>(AA10-1)*(3*C3+C5+C6)+((AA10*(AA10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7148766494853</v>
       </c>
       <c r="AB12" s="29">
-        <v>17133754429</v>
+        <f>(AB10-1)*(3*C3+C5+C6)+((AB10*(AB10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7520068199853</v>
       </c>
       <c r="AC12" s="29">
-        <v>18426337929</v>
+        <f>(AC10-1)*(3*C3+C5+C6)+((AC10*(AC10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>7900769904853</v>
       </c>
       <c r="AD12" s="29">
-        <v>19765921429</v>
+        <f>(AD10-1)*(3*C3+C5+C6)+((AD10*(AD10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>8290871609853</v>
       </c>
       <c r="AE12" s="29">
-        <v>21152504929</v>
+        <f>(AE10-1)*(3*C3+C5+C6)+((AE10*(AE10+1)/2)*(4*C3+6*C4+2*C5+4*C7))+C8</f>
+        <v>8690373314853</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="17">
@@ -5849,94 +6084,124 @@
         <v>2</v>
       </c>
       <c r="B14" s="29">
-        <v>14231096</v>
+        <f>(B10-1)*(5*H3+4*H4+H5+3*H7)+(B10*(B10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>534131079671</v>
       </c>
       <c r="C14" s="29">
-        <v>56712346</v>
+        <f>(C10-1)*(5*H3+4*H4+H5+3*H7)+(C10*(C10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>613158299671</v>
       </c>
       <c r="D14" s="29">
-        <v>127443596</v>
+        <f>(D10-1)*(5*H3+4*H4+H5+3*H7)+(D10*(D10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>697635519671</v>
       </c>
       <c r="E14" s="29">
-        <v>226424846</v>
+        <f>(E10-1)*(5*H3+4*H4+H5+3*H7)+(E10*(E10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>787562739671</v>
       </c>
       <c r="F14" s="29">
-        <v>353656096</v>
+        <f>(F10-1)*(5*H3+4*H4+H5+3*H7)+(F10*(F10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>882939959671</v>
       </c>
       <c r="G14" s="29">
-        <v>509137346</v>
+        <f>(G10-1)*(5*H3+4*H4+H5+3*H7)+(G10*(G10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>983767179671</v>
       </c>
       <c r="H14" s="29">
-        <v>692868596</v>
+        <f>(H10-1)*(5*H3+4*H4+H5+3*H7)+(H10*(H10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1090044399671</v>
       </c>
       <c r="I14" s="29">
-        <v>904849846</v>
+        <f>(I10-1)*(5*H3+4*H4+H5+3*H7)+(I10*(I10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1201771619671</v>
       </c>
       <c r="J14" s="29">
-        <v>1145081096</v>
+        <f>(J10-1)*(5*H3+4*H4+H5+3*H7)+(J10*(J10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1318948839671</v>
       </c>
       <c r="K14" s="29">
-        <v>1413562346</v>
+        <f>(K10-1)*(5*H3+4*H4+H5+3*H7)+(K10*(K10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1441576059671</v>
       </c>
       <c r="L14" s="29">
-        <v>1710293596</v>
+        <f>(L10-1)*(5*H3+4*H4+H5+3*H7)+(L10*(L10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1569653279671</v>
       </c>
       <c r="M14" s="29">
-        <v>2035274846</v>
+        <f>(M10-1)*(5*H3+4*H4+H5+3*H7)+(M10*(M10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1703180499671</v>
       </c>
       <c r="N14" s="29">
-        <v>2388506096</v>
+        <f>(N10-1)*(5*H3+4*H4+H5+3*H7)+(N10*(N10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1842157719671</v>
       </c>
       <c r="O14" s="29">
-        <v>2769987346</v>
+        <f>(O10-1)*(5*H3+4*H4+H5+3*H7)+(O10*(O10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>1986584939671</v>
       </c>
       <c r="P14" s="29">
-        <v>3179718596</v>
+        <f>(P10-1)*(5*H3+4*H4+H5+3*H7)+(P10*(P10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2136462159671</v>
       </c>
       <c r="Q14" s="29">
-        <v>3617699846</v>
+        <f>(Q10-1)*(5*H3+4*H4+H5+3*H7)+(Q10*(Q10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2291789379671</v>
       </c>
       <c r="R14" s="29">
-        <v>4083931096</v>
+        <f>(R10-1)*(5*H3+4*H4+H5+3*H7)+(R10*(R10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2452566599671</v>
       </c>
       <c r="S14" s="29">
-        <v>4578412346</v>
+        <f>(S10-1)*(5*H3+4*H4+H5+3*H7)+(S10*(S10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2618793819671</v>
       </c>
       <c r="T14" s="29">
-        <v>5101143596</v>
+        <f>(T10-1)*(5*H3+4*H4+H5+3*H7)+(T10*(T10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2790471039671</v>
       </c>
       <c r="U14" s="29">
-        <v>5652124846</v>
+        <f>(U10-1)*(5*H3+4*H4+H5+3*H7)+(U10*(U10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>2967598259671</v>
       </c>
       <c r="V14" s="29">
-        <v>6231356096</v>
+        <f>(V10-1)*(5*H3+4*H4+H5+3*H7)+(V10*(V10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3150175479671</v>
       </c>
       <c r="W14" s="29">
-        <v>6838837346</v>
+        <f>(W10-1)*(5*H3+4*H4+H5+3*H7)+(W10*(W10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3338202699671</v>
       </c>
       <c r="X14" s="29">
-        <v>7474568596</v>
+        <f>(X10-1)*(5*H3+4*H4+H5+3*H7)+(X10*(X10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3531679919671</v>
       </c>
       <c r="Y14" s="29">
-        <v>8138549846</v>
+        <f>(Y10-1)*(5*H3+4*H4+H5+3*H7)+(Y10*(Y10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3730607139671</v>
       </c>
       <c r="Z14" s="29">
-        <v>8830781096</v>
+        <f>(Z10-1)*(5*H3+4*H4+H5+3*H7)+(Z10*(Z10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>3934984359671</v>
       </c>
       <c r="AA14" s="29">
-        <v>9551262346</v>
+        <f>(AA10-1)*(5*H3+4*H4+H5+3*H7)+(AA10*(AA10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4144811579671</v>
       </c>
       <c r="AB14" s="29">
-        <v>10299993596</v>
+        <f>(AB10-1)*(5*H3+4*H4+H5+3*H7)+(AB10*(AB10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4360088799671</v>
       </c>
       <c r="AC14" s="29">
-        <v>11076974846</v>
+        <f>(AC10-1)*(5*H3+4*H4+H5+3*H7)+(AC10*(AC10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4580816019671</v>
       </c>
       <c r="AD14" s="29">
-        <v>11882206096</v>
+        <f>(AD10-1)*(5*H3+4*H4+H5+3*H7)+(AD10*(AD10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>4806993239671</v>
       </c>
       <c r="AE14" s="29">
-        <v>12715687346</v>
+        <f>(AE10-1)*(5*H3+4*H4+H5+3*H7)+(AE10*(AE10+1)/2)*(3*H3+2*H4+2*H5+H6)+H8</f>
+        <v>5038620459671</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -5951,7 +6216,7 @@
     </row>
     <row r="16" spans="1:31" ht="18">
       <c r="E16" s="31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
+++ b/Tarea_1_Analisis_Algoritmos_Emmanuel_Rosales.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Configuración 1" sheetId="1" r:id="rId1"/>
@@ -876,11 +876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2092508936"/>
-        <c:axId val="-2092513240"/>
+        <c:axId val="2122713016"/>
+        <c:axId val="2122709912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2092508936"/>
+        <c:axId val="2122713016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092513240"/>
+        <c:crossAx val="2122709912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -898,7 +898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092513240"/>
+        <c:axId val="2122709912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092508936"/>
+        <c:crossAx val="2122713016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,11 +1399,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2124310936"/>
-        <c:axId val="-2086921544"/>
+        <c:axId val="2122614920"/>
+        <c:axId val="2122611816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2124310936"/>
+        <c:axId val="2122614920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1413,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086921544"/>
+        <c:crossAx val="2122611816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086921544"/>
+        <c:axId val="2122611816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124310936"/>
+        <c:crossAx val="2122614920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1912,11 +1912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2090285608"/>
-        <c:axId val="-2095456024"/>
+        <c:axId val="2122560600"/>
+        <c:axId val="2122557512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2090285608"/>
+        <c:axId val="2122560600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +1926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095456024"/>
+        <c:crossAx val="2122557512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1934,7 +1934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095456024"/>
+        <c:axId val="2122557512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1945,14 +1945,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090285608"/>
+        <c:crossAx val="2122560600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2425,11 +2424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086173464"/>
-        <c:axId val="-2085809160"/>
+        <c:axId val="2122506712"/>
+        <c:axId val="2122503624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2086173464"/>
+        <c:axId val="2122506712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085809160"/>
+        <c:crossAx val="2122503624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2447,7 +2446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085809160"/>
+        <c:axId val="2122503624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,14 +2457,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086173464"/>
+        <c:crossAx val="2122506712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2938,11 +2936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2095443160"/>
-        <c:axId val="-2090220152"/>
+        <c:axId val="2122452664"/>
+        <c:axId val="2122449592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2095443160"/>
+        <c:axId val="2122452664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2090220152"/>
+        <c:crossAx val="2122449592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2960,7 +2958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2090220152"/>
+        <c:axId val="2122449592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2971,14 +2969,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2095443160"/>
+        <c:crossAx val="2122452664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3492,9 +3489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -3993,9 +3990,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="1" sqref="A12:XFD12 A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
